--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99067036-FC7D-4825-A311-0429ACC49C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A76159-D3EB-4F33-9FCB-617E114ACB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -92,6 +91,12 @@
   </si>
   <si>
     <t>Github werkend gekregen</t>
+  </si>
+  <si>
+    <t>Vragen verzonnen</t>
+  </si>
+  <si>
+    <t>Github geholpen Roy</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1157,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1210,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1217,7 +1222,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1260,6 +1265,28 @@
       </c>
       <c r="C11">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,15 +1318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1525,6 +1543,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1536,14 +1563,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1563,6 +1582,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A76159-D3EB-4F33-9FCB-617E114ACB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274AE68-2DD0-424C-92EA-DCAF300D3B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>165</v>
+        <v>164.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1286,7 +1286,7 @@
         <v>44095</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,6 +1318,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1543,15 +1552,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1563,6 +1563,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1582,14 +1590,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274AE68-2DD0-424C-92EA-DCAF300D3B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32EA9F2-2B57-4954-89F3-3ACC9EEE5C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Github geholpen Roy</t>
+  </si>
+  <si>
+    <t>Ivar Post</t>
   </si>
 </sst>
 </file>
@@ -601,16 +604,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -618,7 +621,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,20 +629,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -663,10 +666,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -680,12 +683,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -715,16 +718,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -732,25 +735,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -774,10 +777,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -791,12 +794,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -826,16 +829,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -843,25 +846,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,10 +888,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -902,12 +905,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -933,20 +936,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,52 +957,61 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1013,12 +1025,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1048,16 +1104,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1065,25 +1121,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,10 +1163,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1124,12 +1180,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1156,20 +1212,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1233,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1201,37 +1257,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>164.5</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1286,15 +1342,15 @@
         <v>44095</v>
       </c>
       <c r="C13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1318,6 +1374,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1326,7 +1392,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1552,17 +1618,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1570,7 +1644,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1588,22 +1662,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32EA9F2-2B57-4954-89F3-3ACC9EEE5C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545ACE-D21E-48CF-93D2-64C0415EF255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Ivar Post</t>
+  </si>
+  <si>
+    <t>Roy Schottert</t>
   </si>
 </sst>
 </file>
@@ -182,9 +185,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,16 +607,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -621,7 +624,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,20 +632,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -654,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -666,10 +669,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -683,12 +686,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -718,16 +721,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -735,25 +738,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -765,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -777,10 +780,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -794,12 +797,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -829,16 +832,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -846,25 +849,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,10 +891,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -905,12 +908,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -936,20 +939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,7 +968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,37 +984,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>165</v>
+        <v>164.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1066,15 +1069,15 @@
         <v>44095</v>
       </c>
       <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1100,20 +1103,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1121,52 +1124,61 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
+        <v>165.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1180,12 +1192,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1213,19 +1258,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1278,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1257,37 +1302,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>165</v>
+        <v>164.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1342,15 +1387,15 @@
         <v>44095</v>
       </c>
       <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1374,6 +1419,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1381,15 +1435,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,6 +1664,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1632,14 +1685,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545ACE-D21E-48CF-93D2-64C0415EF255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879616D-EF43-A046-828E-7FAB73ACDDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -103,13 +103,28 @@
   </si>
   <si>
     <t>Roy Schottert</t>
+  </si>
+  <si>
+    <t>Jan Willem Grimme</t>
+  </si>
+  <si>
+    <t>Inleiding project KBS</t>
+  </si>
+  <si>
+    <t>16 sep. 20</t>
+  </si>
+  <si>
+    <t>afspraken maken en beginnen projectplan</t>
+  </si>
+  <si>
+    <t>Webshop installeren en logo maken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +162,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +195,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -183,11 +208,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,16 +634,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,7 +651,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,20 +659,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,10 +696,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -686,12 +713,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -717,20 +744,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -738,52 +765,61 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -797,12 +833,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -832,16 +901,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -849,25 +918,25 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,10 +960,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -908,12 +977,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -943,16 +1012,16 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -960,7 +1029,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,10 +1053,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,10 +1080,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1072,12 +1141,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1103,20 +1172,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1193,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1148,10 +1217,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,10 +1244,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1225,12 +1294,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1261,16 +1330,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1347,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1302,10 +1371,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,10 +1398,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1390,12 +1459,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1428,16 +1497,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1663,6 +1722,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
@@ -1672,24 +1741,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1707,4 +1758,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879616D-EF43-A046-828E-7FAB73ACDDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5F67C-A7F7-42E2-87C2-1D5A0C757E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -118,13 +118,19 @@
   </si>
   <si>
     <t>Webshop installeren en logo maken</t>
+  </si>
+  <si>
+    <t>Helpen Github werkend krijgen</t>
+  </si>
+  <si>
+    <t>Les + interview hoofd-sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +208,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -634,24 +640,24 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,20 +665,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -684,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,10 +702,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -713,12 +719,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -744,28 +750,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -773,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -789,10 +795,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -804,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -816,10 +822,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -833,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -844,8 +850,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
@@ -855,8 +861,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -866,12 +872,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -901,42 +907,42 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,10 +966,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -977,12 +983,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1012,24 +1018,24 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,10 +1059,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,10 +1086,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1141,12 +1147,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1176,24 +1182,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,10 +1223,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1244,10 +1250,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1294,12 +1300,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1326,28 +1332,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1371,37 +1377,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>164.5</v>
+        <v>162.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1448,23 +1454,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>44095</v>
       </c>
       <c r="C13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C14">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1488,15 +1505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1722,6 +1730,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1733,14 +1750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1760,6 +1769,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5F67C-A7F7-42E2-87C2-1D5A0C757E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D22EC-A20F-4CD1-A369-3FFFC8AFA07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Nog te besteden:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Jasper in 't Veld</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Les + interview hoofd-sales</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Vermeulen</t>
+  </si>
+  <si>
+    <t>Requirements verwerkt</t>
+  </si>
+  <si>
+    <t>Sales geïnterviewd</t>
+  </si>
+  <si>
+    <t>KSB op locatie</t>
   </si>
 </sst>
 </file>
@@ -218,9 +230,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,6 +250,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D45" totalsRowShown="0">
   <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
+    <sortCondition ref="B9:B45"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum"/>
@@ -314,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -662,18 +677,27 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
@@ -684,7 +708,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -696,7 +720,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
+        <v>161.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -717,6 +741,83 @@
       </c>
       <c r="D9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -776,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -784,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -841,10 +942,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -852,10 +953,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -863,10 +964,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -1015,7 +1116,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C13" sqref="A10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1040,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1048,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1105,7 +1206,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -1116,7 +1217,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>44090</v>
@@ -1127,7 +1228,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>44095</v>
@@ -1138,7 +1239,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>44095</v>
@@ -1204,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1212,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1269,7 +1370,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -1280,7 +1381,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>44095</v>
@@ -1291,7 +1392,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>44095</v>
@@ -1332,14 +1433,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1358,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1366,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1423,7 +1524,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -1434,7 +1535,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>44090</v>
@@ -1445,7 +1546,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>44095</v>
@@ -1456,7 +1557,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>44095</v>
@@ -1467,7 +1568,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1505,6 +1606,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1730,15 +1840,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1750,6 +1851,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1769,14 +1878,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D22EC-A20F-4CD1-A369-3FFFC8AFA07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0F853-4D35-41A3-B042-94831380B061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Helpen Github werkend krijgen</t>
   </si>
   <si>
-    <t>Les + interview hoofd-sales</t>
-  </si>
-  <si>
     <t>Jeremy</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>KSB op locatie</t>
+  </si>
+  <si>
+    <t>Inleiding KBS</t>
+  </si>
+  <si>
+    <t>Interview hoofd-sales</t>
+  </si>
+  <si>
+    <t>Les KBS</t>
   </si>
 </sst>
 </file>
@@ -230,9 +236,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -677,10 +683,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -789,7 +795,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -800,7 +806,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -811,7 +817,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -1433,14 +1439,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1487,7 +1493,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>5.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162.5</v>
+        <v>161.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -1568,13 +1574,35 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1606,15 +1634,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1840,6 +1859,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1851,14 +1879,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1878,6 +1898,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0F853-4D35-41A3-B042-94831380B061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8F3C7-034B-48BD-95E2-FAA1A7E7F2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -658,19 +658,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -861,16 +861,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1014,16 +1014,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1121,20 +1121,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C13" sqref="A10:C13"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>164.5</v>
+        <v>161.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1252,6 +1252,39 @@
       </c>
       <c r="C13">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1289,16 +1322,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1439,20 +1472,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1634,6 +1667,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1859,15 +1901,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1879,6 +1912,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1898,14 +1939,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8F3C7-034B-48BD-95E2-FAA1A7E7F2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3E13F-A08C-4D43-830E-7EF17EE52C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Les KBS</t>
+  </si>
+  <si>
+    <t>KBS op locatie</t>
+  </si>
+  <si>
+    <t>Afspraken voor donderdag en vrijdag gemaakt. Donderdag: Testplan. Vrijdag: Projectplan; Requirements aanvullen; Weekverslag maken;</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -233,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1122,7 +1131,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1175,7 +1184,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6.166666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1187,7 +1196,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>161.83333333333334</v>
+        <v>160.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1285,6 +1294,20 @@
       </c>
       <c r="C16">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1667,15 +1690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1901,6 +1915,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1912,14 +1935,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1939,6 +1954,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3E13F-A08C-4D43-830E-7EF17EE52C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0E798-167E-41F9-AD57-55F35EF9FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -234,20 +234,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,22 +670,22 @@
       <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -870,22 +870,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1023,22 +1023,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1130,26 +1130,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1296,7 +1296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72">
+    <row r="17" spans="1:4" ht="90">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="C17">
         <v>90</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1341,26 +1341,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>2.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>165.5</v>
+        <v>161.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1461,6 +1461,53 @@
       </c>
       <c r="C12">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1499,22 +1546,22 @@
       <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1690,6 +1737,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1915,15 +1971,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1935,6 +1982,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1954,14 +2009,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,28 +5,28 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0E798-167E-41F9-AD57-55F35EF9FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF404B00-2710-4308-B629-991E43C2BD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
-    <sheet name="Projectlid2" sheetId="8" r:id="rId2"/>
-    <sheet name="Projectlid3" sheetId="9" r:id="rId3"/>
-    <sheet name="Projectlid4" sheetId="10" r:id="rId4"/>
-    <sheet name="Projectlid5" sheetId="11" r:id="rId5"/>
-    <sheet name="Projectlid6" sheetId="6" r:id="rId6"/>
+    <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
+    <sheet name="P2 - Jan Willem" sheetId="8" r:id="rId2"/>
+    <sheet name="P3 - Gijs" sheetId="9" r:id="rId3"/>
+    <sheet name="P4 - Ivar" sheetId="10" r:id="rId4"/>
+    <sheet name="P5 - Roy" sheetId="11" r:id="rId5"/>
+    <sheet name="P6 - Jasper" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Projectlid2!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Jeremy'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'P2 - Jan Willem'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'P3 - Gijs'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P4 - Ivar'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P5 - Roy'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'P6 - Jasper'!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Afspraken voor donderdag en vrijdag gemaakt. Donderdag: Testplan. Vrijdag: Projectplan; Requirements aanvullen; Weekverslag maken;</t>
+  </si>
+  <si>
+    <t>Review testplan Ivar</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C16"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -723,7 +726,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6.166666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -735,7 +738,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>161.83333333333334</v>
+        <v>160.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -833,6 +836,28 @@
       </c>
       <c r="C16">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1341,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1737,15 +1762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1971,6 +1987,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1982,14 +2007,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2009,6 +2026,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF404B00-2710-4308-B629-991E43C2BD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB926CBB-636C-4CD2-BF1A-27DE00150B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Review testplan Ivar</t>
+  </si>
+  <si>
+    <t>Uitleg KBS</t>
+  </si>
+  <si>
+    <t>Overleggen Requirements</t>
+  </si>
+  <si>
+    <t>Beoordelen De Groene reus</t>
+  </si>
+  <si>
+    <t>Planning deze week gemaakt</t>
+  </si>
+  <si>
+    <t>Testplan verbeterd</t>
   </si>
 </sst>
 </file>
@@ -248,9 +263,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,7 +362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1567,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C16"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1621,7 +1636,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6.666666666666667</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1633,7 +1648,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>161.33333333333334</v>
+        <v>159.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1731,6 +1746,61 @@
       </c>
       <c r="C16">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1762,6 +1832,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1987,15 +2066,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2007,6 +2077,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2022,14 +2100,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB926CBB-636C-4CD2-BF1A-27DE00150B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0323BB-EAC4-46F1-83E1-A94FFD5CDE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>3</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -972,7 +972,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>165</v>
+        <v>160.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1026,6 +1026,94 @@
       </c>
       <c r="C12">
         <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1582,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1832,15 +1920,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2066,6 +2145,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2077,14 +2165,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2100,6 +2180,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0323BB-EAC4-46F1-83E1-A94FFD5CDE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391FD369-E8DB-4AC6-B4EB-8EC82F16F8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Testplan verbeterd</t>
+  </si>
+  <si>
+    <t>Projectplan ingevuld</t>
+  </si>
+  <si>
+    <t>Weekverslag ingevuld</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -741,7 +747,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>7.416666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -753,7 +759,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160.58333333333334</v>
+        <v>160.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -872,6 +878,17 @@
         <v>44104</v>
       </c>
       <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C19">
         <v>15</v>
       </c>
     </row>
@@ -906,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="C22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -960,7 +977,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>7.166666666666667</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -972,7 +989,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160.83333333333334</v>
+        <v>159.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1114,6 +1131,39 @@
       </c>
       <c r="C20">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1259,7 +1309,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D17"/>
+      <selection activeCell="A18" sqref="A18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1312,7 +1362,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>7.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1324,7 +1374,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160.33333333333334</v>
+        <v>158.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1436,6 +1486,39 @@
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1470,7 +1553,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1523,7 +1606,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6.666666666666667</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1535,7 +1618,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>161.33333333333334</v>
+        <v>159.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1636,6 +1719,39 @@
       </c>
       <c r="D16" s="6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1670,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C22"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C24" sqref="A22:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1724,7 +1840,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8.6666666666666661</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1736,7 +1852,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>159.33333333333334</v>
+        <v>157.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1889,6 +2005,39 @@
       </c>
       <c r="C21">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1920,6 +2069,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2145,15 +2303,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2165,6 +2314,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2180,14 +2337,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391FD369-E8DB-4AC6-B4EB-8EC82F16F8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B4DC5-4AFD-4A7C-86EA-8A7A7DCDC240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>Weekverslag ingevuld</t>
+  </si>
+  <si>
+    <t>31-9-2020</t>
+  </si>
+  <si>
+    <t>Onvolledige database, onjuist Testplan. 1-10-2020 verbeterd</t>
+  </si>
+  <si>
+    <t>Testplan gemaakt</t>
+  </si>
+  <si>
+    <t>Planning gemaakt deze week</t>
+  </si>
+  <si>
+    <t>Database opnieuw geimporteerd</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -249,7 +267,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -267,6 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -694,16 +719,16 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -924,19 +949,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C22" sqref="A22:C22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1201,16 +1226,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1306,22 +1331,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="1.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1388,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>9.1666666666666661</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1374,7 +1400,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158.83333333333334</v>
+        <v>157.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1398,7 +1424,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -1409,7 +1435,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
@@ -1420,7 +1446,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
@@ -1431,7 +1457,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3">
@@ -1442,7 +1468,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3">
@@ -1453,7 +1479,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3">
@@ -1464,7 +1490,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3">
@@ -1474,50 +1500,100 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>44104</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="57.6">
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44106</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44106</v>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44105</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44105</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44106</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B24" s="3">
         <v>44106</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>15</v>
       </c>
     </row>
@@ -1539,7 +1615,7 @@
   <pageMargins left="0.7" right="0.625" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;RICT.M1KBS</oddHeader>
+    <oddHeader>&amp;CICT.M1KBS</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
@@ -1553,19 +1629,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="72">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1786,20 +1862,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C24" sqref="A22:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2069,15 +2145,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2303,6 +2370,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2314,14 +2390,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2337,6 +2405,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B4DC5-4AFD-4A7C-86EA-8A7A7DCDC240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFF441-5E88-4841-84A4-3CD8B0C9A10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Gastcolleges bekeken + aantekeningen gemaakt</t>
   </si>
 </sst>
 </file>
@@ -279,12 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -292,6 +289,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -719,22 +722,22 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -952,22 +955,22 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1226,22 +1229,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1331,29 +1334,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="1.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="1.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1424,7 +1427,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -1435,7 +1438,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
@@ -1446,7 +1449,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
@@ -1457,7 +1460,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3">
@@ -1468,7 +1471,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3">
@@ -1479,7 +1482,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3">
@@ -1490,7 +1493,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3">
@@ -1501,18 +1504,18 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>44104</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:4" ht="60">
+      <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="3">
@@ -1525,25 +1528,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>44105</v>
       </c>
       <c r="C20">
@@ -1554,10 +1557,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>44105</v>
       </c>
       <c r="C21">
@@ -1565,10 +1568,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>44106</v>
       </c>
       <c r="C22">
@@ -1576,7 +1579,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
@@ -1587,7 +1590,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="3">
@@ -1632,22 +1635,22 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1783,7 +1786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72">
+    <row r="16" spans="1:4" ht="90">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1862,26 +1865,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="A22:C24"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1916,7 +1919,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10.166666666666666</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1928,7 +1931,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>157.83333333333334</v>
+        <v>155.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2114,6 +2117,28 @@
       </c>
       <c r="C24">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2145,6 +2170,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2370,15 +2404,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2390,6 +2415,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2405,14 +2438,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFF441-5E88-4841-84A4-3CD8B0C9A10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE0CA6-5F15-4523-942C-DC7D1DF11184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -722,16 +722,16 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -955,16 +955,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1229,16 +1229,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1336,21 +1336,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="1.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="1.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10.666666666666666</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>157.33333333333334</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:4" ht="57.6">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1598,6 +1598,28 @@
       </c>
       <c r="C24">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1635,16 +1657,16 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="72">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1865,20 +1887,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2170,15 +2192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2404,6 +2417,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2415,14 +2437,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2438,6 +2452,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE0CA6-5F15-4523-942C-DC7D1DF11184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FCDBA-983C-4BCB-A404-80718EE6B72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Gastcolleges bekeken + aantekeningen gemaakt</t>
+  </si>
+  <si>
+    <t>Een lijst met conversie verhogende maatregelen gemaakt.</t>
+  </si>
+  <si>
+    <t>Opzet conversie verhogende maatregelen</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -952,7 +958,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1005,7 +1011,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8.6666666666666661</v>
+        <v>9.4166666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>159.33333333333334</v>
+        <v>158.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1117,7 +1123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1192,6 +1198,20 @@
       </c>
       <c r="C23">
         <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1336,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1391,7 +1411,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12.666666666666666</v>
+        <v>13.416666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1403,7 +1423,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>155.33333333333334</v>
+        <v>154.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1620,6 +1640,20 @@
       </c>
       <c r="C26">
         <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1654,7 +1688,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1707,7 +1741,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8.1666666666666661</v>
+        <v>8.9166666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1719,7 +1753,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>159.83333333333334</v>
+        <v>159.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1822,7 +1856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1833,7 +1867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1853,6 +1887,20 @@
       </c>
       <c r="C19">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1888,7 +1936,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1941,7 +1989,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12.166666666666666</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1953,7 +2001,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>155.83333333333334</v>
+        <v>155.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2053,7 +2101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2075,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2086,7 +2134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2097,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2108,7 +2156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2119,7 +2167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2130,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2141,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2152,7 +2200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2161,6 +2209,20 @@
       </c>
       <c r="C26">
         <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2192,6 +2254,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2417,15 +2488,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2437,6 +2499,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2452,14 +2522,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FCDBA-983C-4BCB-A404-80718EE6B72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320F8165-4B2D-442C-9F12-4C880DEB8BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>13.416666666666666</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154.58333333333334</v>
+        <v>154.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1654,6 +1654,17 @@
       </c>
       <c r="D27" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1687,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1935,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1989,7 +2000,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12.916666666666666</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2001,7 +2012,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>155.08333333333334</v>
+        <v>154.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2223,6 +2234,17 @@
       </c>
       <c r="D27" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44106</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2254,15 +2276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2488,6 +2501,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2499,14 +2521,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2522,6 +2536,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320F8165-4B2D-442C-9F12-4C880DEB8BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564AB11D-11BD-4AAC-9B77-4CC880D78CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Opzet conversie verhogende maatregelen</t>
+  </si>
+  <si>
+    <t>Voortzet conversie verhogende maatregelen</t>
+  </si>
+  <si>
+    <t>De lijst met conversie verhogende maatregelen uitgewerkt.</t>
   </si>
 </sst>
 </file>
@@ -1354,20 +1360,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC46"/>
+  <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="50.21875" customWidth="1"/>
     <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="1.33203125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.8">
@@ -1411,7 +1417,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>13.666666666666666</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1423,7 +1429,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154.33333333333334</v>
+        <v>151.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1661,10 +1667,24 @@
         <v>42</v>
       </c>
       <c r="B28" s="3">
-        <v>44106</v>
+        <v>44112</v>
       </c>
       <c r="C28">
         <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44116</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1946,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
@@ -2276,6 +2296,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2501,15 +2530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2521,6 +2541,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2536,14 +2564,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564AB11D-11BD-4AAC-9B77-4CC880D78CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD490EAB-1AE6-4FAD-97AB-BE22D52F4B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>De lijst met conversie verhogende maatregelen uitgewerkt.</t>
+  </si>
+  <si>
+    <t>les KBS</t>
+  </si>
+  <si>
+    <t>Gastcolleges bekeken en aantekingen gemaakt</t>
+  </si>
+  <si>
+    <t>Verder werken aan conversiemaatregelen</t>
+  </si>
+  <si>
+    <t>Afmaken conversiemaatregelen</t>
   </si>
 </sst>
 </file>
@@ -731,7 +743,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -787,7 +799,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>7.666666666666667</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -799,7 +811,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160.33333333333334</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -930,6 +942,61 @@
       </c>
       <c r="C19">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44116</v>
+      </c>
+      <c r="C23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -963,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
@@ -1360,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -1417,7 +1484,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>16.166666666666668</v>
+        <v>17.083333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1429,7 +1496,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151.83333333333334</v>
+        <v>150.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1540,7 +1607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1685,6 +1752,28 @@
       </c>
       <c r="D29" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1967,7 +2056,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -2296,15 +2385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2530,6 +2610,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2541,14 +2630,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2564,6 +2645,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD490EAB-1AE6-4FAD-97AB-BE22D52F4B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A4621-721C-49B8-9D5C-0148007E3A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Afmaken conversiemaatregelen</t>
+  </si>
+  <si>
+    <t>Verder gegaan conversieverhogende maatregelen</t>
+  </si>
+  <si>
+    <t>Afbeeldingen bij de maatregelen gezocht</t>
+  </si>
+  <si>
+    <t>Uitgezocht welke maatregelen we wel en/of niet willen gebruiken</t>
   </si>
 </sst>
 </file>
@@ -746,16 +755,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1034,16 +1043,16 @@
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1322,16 +1331,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1429,21 +1438,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="50.21875" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1811,16 +1820,16 @@
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72">
+    <row r="16" spans="1:4" ht="90">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2053,22 +2062,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2119,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>13.166666666666666</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2121,7 +2131,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154.83333333333334</v>
+        <v>153.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2350,10 +2360,49 @@
         <v>42</v>
       </c>
       <c r="B28" s="3">
-        <v>44106</v>
+        <v>44112</v>
       </c>
       <c r="C28">
         <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44116</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2385,6 +2434,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2610,15 +2668,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2630,6 +2679,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2645,14 +2702,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A4621-721C-49B8-9D5C-0148007E3A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC065E04-802C-4B50-99F1-2B6116C51351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Uitgezocht welke maatregelen we wel en/of niet willen gebruiken</t>
+  </si>
+  <si>
+    <t>Conversiemaatregelen bekeken + sprints besproken</t>
   </si>
 </sst>
 </file>
@@ -1039,14 +1042,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1093,7 +1096,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>9.4166666666666661</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1105,7 +1108,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158.58333333333334</v>
+        <v>156.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1294,6 +1297,48 @@
       </c>
       <c r="D24" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44116</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1438,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1493,7 +1538,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>17.083333333333332</v>
+        <v>18.083333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1505,7 +1550,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>150.91666666666666</v>
+        <v>149.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1783,6 +1828,20 @@
       </c>
       <c r="C31">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2062,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2119,7 +2178,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>14.666666666666666</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2131,7 +2190,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>153.33333333333334</v>
+        <v>152.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2403,6 +2462,20 @@
       </c>
       <c r="C31">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2434,15 +2507,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2668,6 +2732,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2679,14 +2752,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2702,6 +2767,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC065E04-802C-4B50-99F1-2B6116C51351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4FD08-604D-4343-822D-6A8713AE8611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -207,9 +207,6 @@
     <t>De lijst met conversie verhogende maatregelen uitgewerkt.</t>
   </si>
   <si>
-    <t>les KBS</t>
-  </si>
-  <si>
     <t>Gastcolleges bekeken en aantekingen gemaakt</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Conversiemaatregelen bekeken + sprints besproken</t>
+  </si>
+  <si>
+    <t>Verbeteren conversiemaatregelen</t>
   </si>
 </sst>
 </file>
@@ -333,9 +333,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>44111</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
         <v>44112</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3">
         <v>44116</v>
@@ -1002,13 +1002,35 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3">
         <v>44117</v>
       </c>
       <c r="C24">
         <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1301,7 +1323,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3">
         <v>44116</v>
@@ -1310,12 +1332,12 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
         <v>44117</v>
@@ -1324,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1338,7 +1360,7 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1483,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1863,7 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2427,7 +2449,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -2436,12 +2458,12 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -2450,7 +2472,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2475,7 +2497,7 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2507,6 +2529,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2732,15 +2763,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2752,6 +2774,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2767,14 +2797,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4FD08-604D-4343-822D-6A8713AE8611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CC0D36-7777-4628-B394-B7A1BED4CB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Verbeteren conversiemaatregelen</t>
+  </si>
+  <si>
+    <t>Conversie verhogende maatregelen</t>
+  </si>
+  <si>
+    <t>Het conversieverhogendemaatregelen verslag bijgewerkt</t>
   </si>
 </sst>
 </file>
@@ -333,9 +339,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1071,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1118,7 +1124,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>11.833333333333334</v>
+        <v>15.083333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1130,7 +1136,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>156.16666666666666</v>
+        <v>152.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1361,6 +1367,20 @@
       </c>
       <c r="D27" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C28">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1506,7 +1526,7 @@
   <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1560,7 +1580,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18.083333333333332</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1572,7 +1592,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>149.91666666666666</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1864,6 +1884,20 @@
       </c>
       <c r="D32" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C33">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1897,14 +1931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1951,7 +1985,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8.9166666666666661</v>
+        <v>11.916666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1963,7 +1997,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>159.08333333333334</v>
+        <v>156.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2111,6 +2145,20 @@
       </c>
       <c r="D20" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C21">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2145,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2200,7 +2248,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>15.666666666666666</v>
+        <v>18.916666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2212,7 +2260,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>152.33333333333334</v>
+        <v>149.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2498,6 +2546,20 @@
       </c>
       <c r="D32" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C33">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2529,15 +2591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2763,6 +2816,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2774,14 +2836,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2797,6 +2851,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CC0D36-7777-4628-B394-B7A1BED4CB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F686FD1-3000-407D-91C1-E504421FCCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1866,7 +1866,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="3">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2193,7 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -2591,6 +2591,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2816,15 +2825,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2836,6 +2836,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2851,14 +2859,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F686FD1-3000-407D-91C1-E504421FCCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE1A6F-4A14-41D8-99D7-A0671EB0BC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Het conversieverhogendemaatregelen verslag bijgewerkt</t>
+  </si>
+  <si>
+    <t>Begin functioneel ontwerp</t>
   </si>
 </sst>
 </file>
@@ -339,9 +342,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -760,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -817,7 +820,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>16</v>
+        <v>20.583333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -829,7 +832,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>152</v>
+        <v>147.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1037,6 +1040,17 @@
       </c>
       <c r="C26">
         <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C27">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1071,7 +1085,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1124,7 +1138,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>15.083333333333334</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1136,7 +1150,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>152.91666666666666</v>
+        <v>148.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1381,6 +1395,17 @@
       </c>
       <c r="D28" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C29">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1525,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1580,7 +1605,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>21.333333333333332</v>
+        <v>25.916666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1592,7 +1617,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>146.66666666666666</v>
+        <v>142.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1898,6 +1923,17 @@
       </c>
       <c r="D33" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C34">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1931,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1985,7 +2021,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>11.916666666666666</v>
+        <v>16.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1997,7 +2033,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>156.08333333333334</v>
+        <v>151.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2159,6 +2195,17 @@
       </c>
       <c r="D21" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C22">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2193,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="A33:D33"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2248,7 +2295,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18.916666666666668</v>
+        <v>23.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2260,7 +2307,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>149.08333333333334</v>
+        <v>144.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2560,6 +2607,17 @@
       </c>
       <c r="D33" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C34">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2591,15 +2649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2825,6 +2874,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2836,14 +2894,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2859,6 +2909,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE1A6F-4A14-41D8-99D7-A0671EB0BC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15218D6E-B54B-4608-8A97-E60A1273D3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="68">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Begin functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>Schermontwerp</t>
+  </si>
+  <si>
+    <t>Domeinmodel</t>
   </si>
 </sst>
 </file>
@@ -342,9 +351,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -763,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2240,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C34"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2307,7 +2316,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>144.5</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2618,6 +2627,45 @@
       </c>
       <c r="C34">
         <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44130</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44132</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2649,6 +2697,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2874,15 +2931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2894,6 +2942,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2909,14 +2965,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15218D6E-B54B-4608-8A97-E60A1273D3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA08533-F1FC-41C5-B185-9833E87F2345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="70">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Domeinmodel</t>
+  </si>
+  <si>
+    <t>Wireframes gemaakt</t>
+  </si>
+  <si>
+    <t>UserStories, requirements, acceptatiecriteria, use-case diagram, use-case omschrijving</t>
   </si>
 </sst>
 </file>
@@ -776,16 +782,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1097,16 +1103,16 @@
       <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1452,16 +1458,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1559,21 +1565,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C34"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1620,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25.916666666666668</v>
+        <v>30.416666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1626,7 +1632,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>142.08333333333334</v>
+        <v>137.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1737,7 +1743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1943,6 +1949,62 @@
       </c>
       <c r="C34">
         <v>275</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44130</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44132</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C38">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1960,7 +2022,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.625" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.625" top="0.75" bottom="1.0208333333333333" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CICT.M1KBS</oddHeader>
@@ -1980,16 +2042,16 @@
       <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="72">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2249,21 +2311,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2697,15 +2759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2931,6 +2984,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2942,14 +3004,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2965,6 +3019,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA08533-F1FC-41C5-B185-9833E87F2345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C62EEB2-28A5-4B74-AD70-947CD7AA46EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>UserStories, requirements, acceptatiecriteria, use-case diagram, use-case omschrijving</t>
+  </si>
+  <si>
+    <t>Trello bord ingericht</t>
   </si>
 </sst>
 </file>
@@ -357,9 +360,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,20 +781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -835,7 +838,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>20.583333333333332</v>
+        <v>24.083333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -847,7 +850,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>147.41666666666666</v>
+        <v>143.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1066,6 +1069,28 @@
       </c>
       <c r="C27">
         <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1100,19 +1125,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+      <selection activeCell="A30" sqref="A30:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1178,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>19.666666666666668</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1165,7 +1190,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>148.33333333333334</v>
+        <v>144.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1421,6 +1446,28 @@
       </c>
       <c r="C29">
         <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1458,16 +1505,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1565,21 +1612,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="A38:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1667,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>30.416666666666668</v>
+        <v>32.416666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1632,7 +1679,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>137.58333333333334</v>
+        <v>135.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1743,7 +1790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1757,7 +1804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1940,7 +1987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2005,6 +2052,17 @@
       </c>
       <c r="D38" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C39">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2039,19 +2097,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+      <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2150,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2104,7 +2162,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151.5</v>
+        <v>147.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2193,7 +2251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72">
+    <row r="16" spans="1:4" ht="90">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2277,6 +2335,28 @@
       </c>
       <c r="C22">
         <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2311,21 +2391,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD37"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2446,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2378,7 +2458,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2728,6 +2808,17 @@
       </c>
       <c r="D37" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C38">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2759,6 +2850,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2984,15 +3084,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -3004,6 +3095,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3019,14 +3118,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C62EEB2-28A5-4B74-AD70-947CD7AA46EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7369EB-F4A6-48E8-A34A-2CD248AA711B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="74">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Trello bord ingericht</t>
+  </si>
+  <si>
+    <t>Functioneel Ontwerp afgemaakt</t>
+  </si>
+  <si>
+    <t>Trello CVM gedetaileerd</t>
+  </si>
+  <si>
+    <t>Trello CVM gedetaileerd, FO afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -360,9 +369,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,7 +468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,20 +790,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -838,7 +847,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>24.083333333333332</v>
+        <v>26.083333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -850,7 +859,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>143.91666666666666</v>
+        <v>141.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1091,6 +1100,28 @@
       </c>
       <c r="C29">
         <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1124,20 +1155,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C31"/>
+    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1209,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>23.666666666666668</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1190,7 +1221,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>144.33333333333334</v>
+        <v>142.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1468,6 +1499,28 @@
       </c>
       <c r="C31">
         <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1501,20 +1554,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1612,21 +1665,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="A38:C39"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="16383" width="9.1796875" hidden="1"/>
+    <col min="16384" max="16384" width="0.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1720,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>32.416666666666664</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1679,7 +1732,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>135.58333333333334</v>
+        <v>134.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1790,7 +1843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1804,7 +1857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="29">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1987,7 +2040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="29">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2063,6 +2116,17 @@
       </c>
       <c r="C39">
         <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2097,19 +2161,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C24"/>
+      <selection activeCell="A25" sqref="A25:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2214,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2162,7 +2226,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>147.5</v>
+        <v>145.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2251,7 +2315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="87">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2357,6 +2421,28 @@
       </c>
       <c r="C24">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2391,21 +2477,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A37:C38"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2532,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2458,7 +2544,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2819,6 +2905,28 @@
       </c>
       <c r="C38">
         <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2859,6 +2967,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3084,16 +3202,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
@@ -3103,6 +3211,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3120,22 +3246,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7369EB-F4A6-48E8-A34A-2CD248AA711B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E8DC9-B203-432E-A4EC-178E418B35D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -369,9 +369,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -790,20 +790,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1155,20 +1155,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C33"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D33" sqref="A10:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1558,16 +1558,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1665,21 +1665,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="A19:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="16383" width="9.1796875" hidden="1"/>
-    <col min="16384" max="16384" width="0.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2160,20 +2160,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C26"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>22.5</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>145.5</v>
+        <v>142.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2251,40 +2251,40 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44090</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44095</v>
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44095</v>
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3">
         <v>44097</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2315,135 +2315,234 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="87">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3">
         <v>44104</v>
       </c>
       <c r="C16">
-        <v>90</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
-        <v>44112</v>
+        <v>44105</v>
       </c>
       <c r="C20">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3">
-        <v>44126</v>
+        <v>44106</v>
       </c>
       <c r="C21">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
-        <v>44127</v>
+        <v>44106</v>
       </c>
       <c r="C22">
-        <v>275</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
-        <v>44134</v>
+        <v>44106</v>
       </c>
       <c r="C23">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
-        <v>44134</v>
+        <v>44112</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3">
-        <v>44136</v>
+        <v>44116</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44117</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C28">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C29">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44134</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B33" s="3">
         <v>44136</v>
       </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -2477,21 +2576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2958,15 +3057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -2974,6 +3064,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3203,14 +3302,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3224,6 +3315,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E8DC9-B203-432E-A4EC-178E418B35D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CAF39-C91B-41C9-BF86-4C0FF86519FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>Trello CVM gedetaileerd, FO afgemaakt</t>
+  </si>
+  <si>
+    <t>Les KBS online</t>
+  </si>
+  <si>
+    <t>Laatste dingen besproken voor het beginnen met de eerse sprint</t>
+  </si>
+  <si>
+    <t>KBS workshop</t>
+  </si>
+  <si>
+    <t>Databaseconnecties</t>
+  </si>
+  <si>
+    <t>Sessies</t>
   </si>
 </sst>
 </file>
@@ -369,9 +384,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +483,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2160,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2576,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2631,7 +2646,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2643,7 +2658,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3026,6 +3041,48 @@
       </c>
       <c r="C40">
         <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44141</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44113</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3067,15 +3124,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3301,6 +3349,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3320,14 +3377,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3345,4 +3394,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CAF39-C91B-41C9-BF86-4C0FF86519FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA4D5E-C239-4451-B450-188A8771529D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="81">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Sessies</t>
+  </si>
+  <si>
+    <t>Begin viewWinkelmand</t>
+  </si>
+  <si>
+    <t>Een basic winkelmand met beginnende styling. Werkt met testcookies.</t>
   </si>
 </sst>
 </file>
@@ -809,16 +815,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1174,16 +1180,16 @@
       <selection activeCell="D33" sqref="A10:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1573,16 +1579,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1680,21 +1686,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="A19:D40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="16383" width="9.1796875" hidden="1"/>
+    <col min="16384" max="16384" width="0.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1741,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>33.166666666666664</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1747,7 +1753,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>134.83333333333334</v>
+        <v>127.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1858,7 +1864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="29">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="29">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2142,6 +2148,62 @@
       </c>
       <c r="C40">
         <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44141</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44113</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C44">
+        <v>180</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2179,16 +2241,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2591,21 +2653,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3124,6 +3186,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3349,15 +3420,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3377,6 +3439,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3394,12 +3464,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA4D5E-C239-4451-B450-188A8771529D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D90352C-6122-4788-82C6-0342C95A924E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="83">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Een basic winkelmand met beginnende styling. Werkt met testcookies.</t>
+  </si>
+  <si>
+    <t>Begin toevoegen aan winkelwagen</t>
+  </si>
+  <si>
+    <t>Bekeken waar het in view.php gezet moet worden. De knop gemaakt en op de goede plek gezet. Is nog niet optimaal gekeken naar opmaak</t>
   </si>
 </sst>
 </file>
@@ -815,16 +821,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1180,16 +1186,16 @@
       <selection activeCell="D33" sqref="A10:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1579,16 +1585,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1686,21 +1692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="16383" width="9.1796875" hidden="1"/>
-    <col min="16384" max="16384" width="0.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2241,16 +2247,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2653,21 +2659,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2714,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2720,7 +2726,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>133</v>
+        <v>130.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3145,6 +3151,20 @@
       </c>
       <c r="D43" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C44">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3186,15 +3206,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3420,6 +3431,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3439,14 +3459,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3464,4 +3476,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D90352C-6122-4788-82C6-0342C95A924E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204ED06C-14BA-421D-98E9-8517955EE3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Bekeken waar het in view.php gezet moet worden. De knop gemaakt en op de goede plek gezet. Is nog niet optimaal gekeken naar opmaak</t>
+  </si>
+  <si>
+    <t>Probleem oplossen toevoegen aan winkelwagen</t>
+  </si>
+  <si>
+    <t>Probleem: Het toevoegen werkt niet. Dit is opgelost. Daarna was er een nieuw probleem: Je kan niet meer dan 1 item toevoegen. Dit kwam omdat het aantal een string was en we konden er geen integer van maken. Dit is bijna opgelost, alleen uit het functioneel ontwerp is gebleken dat we dit alleen moeten doen bij het aanpassen van de winkelmand.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -394,6 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1693,7 +1700,7 @@
   <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1747,7 +1754,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>40.166666666666664</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1759,7 +1766,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>127.83333333333334</v>
+        <v>125.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2213,9 +2220,18 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="12">
+        <v>44146</v>
+      </c>
+      <c r="C45" s="2">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
@@ -2660,7 +2676,7 @@
   <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="D45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2714,7 +2730,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2726,7 +2742,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>130.5</v>
+        <v>128.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3168,9 +3184,18 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="12">
+        <v>44146</v>
+      </c>
+      <c r="C45" s="2">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
@@ -3206,6 +3231,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3431,15 +3465,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3459,6 +3484,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3476,12 +3509,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204ED06C-14BA-421D-98E9-8517955EE3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E1827-744A-445E-A86F-915E3B5BA7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Probleem: Het toevoegen werkt niet. Dit is opgelost. Daarna was er een nieuw probleem: Je kan niet meer dan 1 item toevoegen. Dit kwam omdat het aantal een string was en we konden er geen integer van maken. Dit is bijna opgelost, alleen uit het functioneel ontwerp is gebleken dat we dit alleen moeten doen bij het aanpassen van de winkelmand.</t>
+  </si>
+  <si>
+    <t>Verder gegaan toevoegen aan winkelwagen</t>
+  </si>
+  <si>
+    <t>Knop ga naar winkelwagen toegevoegd. Voeg toe aan winkelwagen knop voegt nu 1 item toe en geeft meldingen op basis van of het er al in staat of niet. Logo toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -394,13 +400,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -489,8 +495,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D46" totalsRowShown="0">
+  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -838,12 +844,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1203,12 +1209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1602,12 +1608,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1714,12 +1720,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2223,7 +2229,7 @@
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>44146</v>
       </c>
       <c r="C45" s="2">
@@ -2273,12 +2279,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2676,7 +2682,7 @@
   <dimension ref="A1:XFC46"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="A45:D45"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2690,12 +2696,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2730,7 +2736,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>128.5</v>
+        <v>127.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3187,7 +3193,7 @@
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>44146</v>
       </c>
       <c r="C45" s="2">
@@ -3198,10 +3204,18 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44146</v>
+      </c>
+      <c r="C46" s="2">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3231,15 +3245,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3465,6 +3470,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3484,14 +3498,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3509,4 +3515,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E1827-744A-445E-A86F-915E3B5BA7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70EB95E-6759-40C8-B11E-DA7AC30FFE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Knop ga naar winkelwagen toegevoegd. Voeg toe aan winkelwagen knop voegt nu 1 item toe en geeft meldingen op basis van of het er al in staat of niet. Logo toegevoegd</t>
+  </si>
+  <si>
+    <t>Cookies ophalen van view.php gemaakt</t>
+  </si>
+  <si>
+    <t>De cookies worden opgehaald vanaf view.php</t>
   </si>
 </sst>
 </file>
@@ -469,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D46" totalsRowShown="0">
+  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -834,16 +840,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1199,16 +1205,16 @@
       <selection activeCell="D33" sqref="A10:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1598,16 +1604,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1705,21 +1711,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1766,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.166666666666664</v>
+        <v>43.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1772,7 +1778,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.83333333333334</v>
+        <v>124.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1883,7 +1889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2240,10 +2246,18 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44146</v>
+      </c>
+      <c r="C46" s="2">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2269,16 +2283,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2681,21 +2695,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3245,6 +3259,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3470,15 +3493,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -3498,6 +3512,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3515,12 +3537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70EB95E-6759-40C8-B11E-DA7AC30FFE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1820766-C388-0446-800F-3635056B74F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="89">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,16 +840,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,10 +884,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,10 +911,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -939,7 +939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -950,7 +950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -972,7 +972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -983,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -994,7 +994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1170,12 +1170,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1201,20 +1201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D33" sqref="A10:D33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1246,37 +1246,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25.666666666666668</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>142.33333333333334</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1569,12 +1569,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44141</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44113</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1604,16 +1637,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1621,25 +1654,25 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1663,10 +1696,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1680,12 +1713,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1711,21 +1744,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="16383" width="9.1640625" hidden="1"/>
+    <col min="16384" max="16384" width="0.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1766,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1757,10 +1790,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1784,10 +1817,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1834,7 +1867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1856,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1867,7 +1900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1889,7 +1922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1917,7 +1950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1942,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1964,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1975,7 +2008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +2019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1997,7 +2030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2011,7 +2044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2047,7 +2080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2086,7 +2119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2100,7 +2133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2114,7 +2147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2128,7 +2161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +2172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2153,7 +2186,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2164,7 +2197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2175,7 +2208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2189,7 +2222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2203,7 +2236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2217,7 +2250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2231,7 +2264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -2283,16 +2316,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2333,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2324,10 +2357,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2339,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2351,10 +2384,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2390,7 +2423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2412,7 +2445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +2467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2445,7 +2478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2456,7 +2489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +2500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2478,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +2522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +2533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2522,7 +2555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2536,7 +2569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2550,7 +2583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2564,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +2625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2603,7 +2636,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2614,7 +2647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2636,7 +2669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2647,28 +2680,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2695,21 +2728,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2750,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2741,10 +2774,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2768,10 +2801,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2785,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2796,7 +2829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2807,7 +2840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2818,7 +2851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2829,7 +2862,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2840,7 +2873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2862,7 +2895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2884,7 +2917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +2928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2906,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2917,7 +2950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2928,7 +2961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2939,7 +2972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2950,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2961,7 +2994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +3005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2986,7 +3019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2997,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3011,7 +3044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3050,7 +3083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3064,7 +3097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3075,7 +3108,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3089,7 +3122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3100,7 +3133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -3114,7 +3147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3136,7 +3169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3147,7 +3180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3161,7 +3194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3175,7 +3208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3189,7 +3222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3217,7 +3250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3249,25 +3282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3493,33 +3507,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3537,4 +3544,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1820766-C388-0446-800F-3635056B74F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4987C0DC-BC58-4471-BC04-FB20C9C466B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="93">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -310,13 +310,25 @@
   </si>
   <si>
     <t>De cookies worden opgehaald vanaf view.php</t>
+  </si>
+  <si>
+    <t>Jan Willem geholpen een begin te maken</t>
+  </si>
+  <si>
+    <t>Geholpen met het begrijpen van html en css</t>
+  </si>
+  <si>
+    <t>Laatste stukje afgemaakt toevoegen aan winkelwagen</t>
+  </si>
+  <si>
+    <t>Knop wordt nu grijs als er geen items meer op voorraad zijn. We zijn weer teruggestapt naar sessievariabelen want het opslaan van een array in een cookie werkte niet zoals we verwacht hadden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D46" totalsRowShown="0">
-  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D48" totalsRowShown="0">
+  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -840,16 +852,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -857,7 +869,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,10 +896,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,10 +923,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -928,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -939,7 +951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -950,7 +962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -961,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -972,7 +984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -983,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1170,12 +1182,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1201,20 +1213,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1234,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1246,10 +1258,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,10 +1285,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1514,7 +1526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1602,12 +1614,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1637,16 +1649,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1654,25 +1666,25 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1696,10 +1708,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1713,12 +1725,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1748,17 +1760,17 @@
       <selection activeCell="A41" sqref="A41:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.1640625" hidden="1"/>
-    <col min="16384" max="16384" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1778,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1790,10 +1802,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1817,10 +1829,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1975,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2161,7 +2173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -2316,16 +2328,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2345,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2357,10 +2369,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2384,10 +2396,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2669,7 +2681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2680,28 +2692,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2726,23 +2738,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC46"/>
+  <dimension ref="A1:XFC48"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.5" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2762,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2774,37 +2786,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>40.5</v>
+        <v>44.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>127.5</v>
+        <v>123.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2895,7 +2907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2906,7 +2918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2939,7 +2951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +3031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3030,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3250,7 +3262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3262,6 +3274,34 @@
       </c>
       <c r="D46" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C48">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3508,15 +3548,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3524,6 +3555,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3547,14 +3587,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3570,4 +3602,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4987C0DC-BC58-4471-BC04-FB20C9C466B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE1F9E0-2019-004B-A90B-17DECF42AC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="95">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -322,13 +322,19 @@
   </si>
   <si>
     <t>Knop wordt nu grijs als er geen items meer op voorraad zijn. We zijn weer teruggestapt naar sessievariabelen want het opslaan van een array in een cookie werkte niet zoals we verwacht hadden.</t>
+  </si>
+  <si>
+    <t>begonnen confirmation pagina &amp; order pagina</t>
+  </si>
+  <si>
+    <t>order pagina verder gemaakt &amp; begin betaalpagina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,20 +854,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -869,7 +875,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,10 +902,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,10 +929,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -940,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -951,7 +957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -962,7 +968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -973,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -984,7 +990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1182,12 +1188,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1213,20 +1219,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1240,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1258,37 +1264,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>29.666666666666668</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>138.33333333333334</v>
+        <v>132.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1302,40 +1308,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
+      <c r="B10" s="3">
+        <v>44090</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="B11" s="3">
+        <v>44090</v>
       </c>
       <c r="C11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
+      <c r="B12" s="3">
+        <v>44090</v>
       </c>
       <c r="C12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1614,12 +1620,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1630,7 +1658,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.625" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RICT.M1KBS</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -1645,20 +1673,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1666,25 +1694,25 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1708,10 +1736,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1725,12 +1753,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1756,21 +1784,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C43"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.1640625" hidden="1"/>
+    <col min="16384" max="16384" width="0.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1806,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1802,10 +1830,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1829,10 +1857,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1857,7 +1885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1868,7 +1896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1879,7 +1907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1901,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1948,7 +1976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1962,7 +1990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -1976,7 +2004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +2015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1998,7 +2026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -2009,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -2020,7 +2048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2031,7 +2059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2042,7 +2070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2067,7 +2095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2081,7 +2109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2117,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2131,7 +2159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2145,7 +2173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2159,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2173,7 +2201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2198,7 +2226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2209,7 +2237,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2220,7 +2248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2234,7 +2262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2248,7 +2276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2262,7 +2290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2276,7 +2304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -2290,7 +2318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -2324,20 +2352,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2373,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2369,10 +2397,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2396,10 +2424,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2435,7 +2463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2468,7 +2496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2490,7 +2518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2512,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2523,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2534,7 +2562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2556,7 +2584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2567,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2581,7 +2609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2609,7 +2637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2623,7 +2651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2637,7 +2665,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2648,7 +2676,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2659,7 +2687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2670,7 +2698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2681,7 +2709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2692,28 +2720,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2740,21 +2768,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2790,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2770,7 +2798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2778,7 +2806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2786,10 +2814,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2813,10 +2841,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2841,7 +2869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +2880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2885,7 +2913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2896,7 +2924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2907,7 +2935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2918,7 +2946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2929,7 +2957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2951,7 +2979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2962,7 +2990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2973,7 +3001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2984,7 +3012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2995,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3006,7 +3034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3017,7 +3045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3031,7 +3059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3042,7 +3070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3070,7 +3098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3081,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3095,7 +3123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +3162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3145,7 +3173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -3159,7 +3187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3170,7 +3198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3181,7 +3209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3206,7 +3234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3220,7 +3248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3234,7 +3262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3248,7 +3276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3262,7 +3290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3276,7 +3304,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3290,7 +3318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3322,6 +3350,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3547,41 +3594,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3605,9 +3621,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE1F9E0-2019-004B-A90B-17DECF42AC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6FB45-8323-934A-9EB3-159FBC91CCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>order pagina verder gemaakt &amp; begin betaalpagina</t>
+  </si>
+  <si>
+    <t>workshop kbs gevolgd van de kbs docent</t>
+  </si>
+  <si>
+    <t>bezig geweest aan order.php en pay.php</t>
+  </si>
+  <si>
+    <t>heel veel opnieuw gedaan in order.php omdat ik de indeling anders wilde uitgebreide uitleg in mijn eigen logboek.</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1282,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>35.666666666666664</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1285,7 +1294,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>132.33333333333334</v>
+        <v>125.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1640,6 +1649,31 @@
       </c>
       <c r="C38">
         <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C40">
+        <v>330</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1784,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3350,25 +3384,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3594,10 +3609,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3621,21 +3667,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/.bitnami/stackman/machines/xampp/volumes/root/htdocs/Nerdygadgets/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6FB45-8323-934A-9EB3-159FBC91CCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779C260-2DD0-4A3D-B979-3D30EA811981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -337,13 +337,22 @@
   </si>
   <si>
     <t>heel veel opnieuw gedaan in order.php omdat ik de indeling anders wilde uitgebreide uitleg in mijn eigen logboek.</t>
+  </si>
+  <si>
+    <t>BTW, verzenkosten en cleanup van cart.php</t>
+  </si>
+  <si>
+    <t>Berekening van verzenkosten, BTW en een cleanup gedaan. Code loopt soepel door naar order.php</t>
+  </si>
+  <si>
+    <t>Hulp geleverd aan order.php en pay.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D46" totalsRowShown="0">
-  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D48" totalsRowShown="0">
+  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -867,16 +876,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -884,7 +893,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,10 +920,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,10 +947,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -955,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -966,7 +975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -977,7 +986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -988,7 +997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1197,12 +1206,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1228,20 +1237,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1258,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1273,10 +1282,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1300,10 +1309,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -1676,12 +1685,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1711,16 +1720,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1728,25 +1737,25 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1770,10 +1779,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1787,12 +1796,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1816,23 +1825,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC46"/>
+  <dimension ref="A1:XFC48"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.1640625" hidden="1"/>
-    <col min="16384" max="16384" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1849,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,37 +1873,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>43.166666666666664</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>124.83333333333334</v>
+        <v>118.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -2364,6 +2373,34 @@
       </c>
       <c r="D46" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C48">
+        <v>240</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2390,16 +2427,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2444,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2431,10 +2468,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2446,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2458,10 +2495,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2475,7 +2512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2497,7 +2534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2508,7 +2545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2519,7 +2556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2530,7 +2567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2541,7 +2578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2563,7 +2600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2574,7 +2611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2585,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2596,7 +2633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2629,7 +2666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2643,7 +2680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2671,7 +2708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2685,7 +2722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2721,7 +2758,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2732,7 +2769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2743,7 +2780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2754,28 +2791,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2806,17 +2843,17 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.5" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2861,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2848,10 +2885,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2875,10 +2912,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2892,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2903,7 +2940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2914,7 +2951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2925,7 +2962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2936,7 +2973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +2984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2958,7 +2995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2969,7 +3006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2980,7 +3017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2991,7 +3028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3002,7 +3039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3013,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3035,7 +3072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +3083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3057,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3068,7 +3105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3079,7 +3116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3093,7 +3130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3118,7 +3155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3132,7 +3169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3143,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3157,7 +3194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3171,7 +3208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3196,7 +3233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3207,7 +3244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -3221,7 +3258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3232,7 +3269,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3243,7 +3280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3254,7 +3291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3268,7 +3305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3282,7 +3319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3296,7 +3333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3310,7 +3347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3324,7 +3361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3338,7 +3375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3352,7 +3389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3610,6 +3647,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3617,15 +3663,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3649,6 +3686,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3664,12 +3709,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779C260-2DD0-4A3D-B979-3D30EA811981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25975DB0-9ED5-4B02-890D-420DD68D36AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="101">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -537,8 +537,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D48" totalsRowShown="0">
-  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D49" totalsRowShown="0">
+  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -2837,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC48"/>
+  <dimension ref="A1:XFC49"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>44.5</v>
+        <v>46.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>123.5</v>
+        <v>121.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3401,6 +3401,20 @@
       </c>
       <c r="D48" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3647,15 +3661,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3663,6 +3668,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3686,14 +3700,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3709,4 +3715,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25975DB0-9ED5-4B02-890D-420DD68D36AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50F73A-A5F2-415E-8CFC-8986213B388C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Hulp geleverd aan order.php en pay.php</t>
+  </si>
+  <si>
+    <t>CSS &amp; bootstrap</t>
   </si>
 </sst>
 </file>
@@ -537,8 +540,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D49" totalsRowShown="0">
-  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D50" totalsRowShown="0">
+  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -876,16 +879,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1238,19 +1241,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1720,16 +1723,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1828,20 +1831,20 @@
   <dimension ref="A1:XFC48"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D47"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2427,16 +2430,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2837,23 +2840,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC49"/>
+  <dimension ref="A1:XFC50"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>46.5</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2906,7 +2909,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>121.5</v>
+        <v>120.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3405,15 +3408,29 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
       </c>
       <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44148</v>
+      </c>
+      <c r="C50">
         <v>120</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3661,6 +3678,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3668,15 +3694,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3700,6 +3717,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3715,12 +3740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50F73A-A5F2-415E-8CFC-8986213B388C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45984FC3-CBFE-4014-AE82-A7BC88324D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>CSS &amp; bootstrap</t>
+  </si>
+  <si>
+    <t>Wijzigen winkelmand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een artikel verwijderen, vermeerderen en verminderen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terugknop, lege winkelmand, </t>
+  </si>
+  <si>
+    <t>De terugknop naar home.php gemaakt. Als de winkelmand leeg geen error tonen. Htaccess gemaakt</t>
   </si>
 </sst>
 </file>
@@ -514,8 +526,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D48" totalsRowShown="0">
-  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D50" totalsRowShown="0">
+  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -875,20 +887,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView view="pageLayout" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -932,7 +944,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>26.083333333333332</v>
+        <v>31.583333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -944,7 +956,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>141.91666666666666</v>
+        <v>136.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1207,6 +1219,31 @@
       </c>
       <c r="C31">
         <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C33">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1244,16 +1281,16 @@
       <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1723,16 +1760,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1828,23 +1865,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC48"/>
+  <dimension ref="A1:XFC50"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1884,8 +1921,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>49.166666666666664</v>
+        <f>SUM(C10:C153)/60</f>
+        <v>52.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1896,8 +1933,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>118.83333333333334</v>
+        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
+        <v>115.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2008,7 +2045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2022,7 +2059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2404,6 +2441,34 @@
       </c>
       <c r="D48" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C49">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2427,19 +2492,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2545,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25.666666666666668</v>
+        <v>28.166666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2492,7 +2557,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>142.33333333333334</v>
+        <v>139.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2795,7 +2860,18 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="3"/>
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="3"/>
@@ -2842,21 +2918,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3678,15 +3754,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3694,6 +3761,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3717,14 +3793,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3740,4 +3808,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45984FC3-CBFE-4014-AE82-A7BC88324D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49287D2-3C27-4390-A415-8893DB5D21C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
     <sheet name="P2 - Jan Willem" sheetId="8" r:id="rId2"/>
-    <sheet name="P3 - Gijs" sheetId="9" r:id="rId3"/>
-    <sheet name="P4 - Ivar" sheetId="10" r:id="rId4"/>
-    <sheet name="P5 - Roy" sheetId="11" r:id="rId5"/>
-    <sheet name="P6 - Jasper" sheetId="6" r:id="rId6"/>
+    <sheet name="P4 - Ivar" sheetId="10" r:id="rId3"/>
+    <sheet name="P5 - Roy" sheetId="11" r:id="rId4"/>
+    <sheet name="P6 - Jasper" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Jeremy'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P2 - Jan Willem'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'P3 - Gijs'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'P4 - Ivar'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'P5 - Roy'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'P6 - Jasper'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'P4 - Ivar'!$A$1:$D$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P5 - Roy'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P6 - Jasper'!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -361,6 +359,15 @@
   </si>
   <si>
     <t>De terugknop naar home.php gemaakt. Als de winkelmand leeg geen error tonen. Htaccess gemaakt</t>
+  </si>
+  <si>
+    <t>Wijzigen Winkelmand afmaken, testen winkelmand</t>
+  </si>
+  <si>
+    <t>Winkelmand en testen</t>
+  </si>
+  <si>
+    <t>Feedback verwerkt</t>
   </si>
 </sst>
 </file>
@@ -513,21 +520,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157234" displayName="Table157234" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Activiteit"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Datum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Opmerkingen"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D50" totalsRowShown="0">
-  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D51" totalsRowShown="0">
+  <autoFilter ref="A9:D51" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -538,7 +532,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D45" totalsRowShown="0">
   <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
@@ -551,7 +545,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D50" totalsRowShown="0">
   <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
@@ -887,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -944,7 +938,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>31.583333333333332</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -956,7 +950,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>136.41666666666666</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1056,7 +1050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1199,7 +1193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1221,29 +1215,85 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
-        <v>44147</v>
+        <v>44141</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44144</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44145</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44147</v>
+      </c>
+      <c r="C35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B36" s="3">
         <v>44149</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>150</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44150</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1277,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1331,7 +1381,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.333333333333336</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1343,7 +1393,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.66666666666666</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1723,6 +1773,20 @@
       </c>
       <c r="D40" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1753,122 +1817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:XFC51"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.625" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;RICT.M1KBS</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1921,8 +1874,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C153)/60</f>
-        <v>52.666666666666664</v>
+        <f>SUM(C10:C154)/60</f>
+        <v>53.416666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1933,8 +1886,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>115.33333333333334</v>
+        <f>(2*3*28)-(SUM(C10:C154)/60)</f>
+        <v>114.58333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2350,7 +2303,7 @@
         <v>76</v>
       </c>
       <c r="B42" s="3">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -2417,57 +2370,68 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="C47">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="3">
         <v>44148</v>
       </c>
       <c r="C48">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B49" s="3">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3">
         <v>44149</v>
       </c>
       <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C51">
         <v>150</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2487,12 +2451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="A34:D34"/>
+    <sheetView view="pageLayout" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -2914,12 +2878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC50"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3754,6 +3718,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -3761,15 +3734,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3793,6 +3757,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3808,12 +3780,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49287D2-3C27-4390-A415-8893DB5D21C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EB29B-3C5B-4BE4-B860-87FCFB6A79C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30870" yWindow="750" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="120">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Inleiding project KBS</t>
   </si>
   <si>
-    <t>16 sep. 20</t>
-  </si>
-  <si>
     <t>afspraken maken en beginnen projectplan</t>
   </si>
   <si>
@@ -368,6 +365,42 @@
   </si>
   <si>
     <t>Feedback verwerkt</t>
+  </si>
+  <si>
+    <t>16/08/2020</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>Les KBS op locatie</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>14/11/2020</t>
   </si>
 </sst>
 </file>
@@ -473,9 +506,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,7 +592,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,16 +918,16 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -907,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1019,7 +1052,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1030,7 +1063,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -1041,7 +1074,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -1052,7 +1085,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -1063,7 +1096,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -1074,7 +1107,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>44106</v>
@@ -1085,7 +1118,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
         <v>44111</v>
@@ -1096,7 +1129,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3">
         <v>44112</v>
@@ -1107,7 +1140,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3">
         <v>44112</v>
@@ -1118,7 +1151,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3">
         <v>44116</v>
@@ -1129,7 +1162,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3">
         <v>44117</v>
@@ -1140,7 +1173,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>44125</v>
@@ -1151,7 +1184,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
         <v>44126</v>
@@ -1162,7 +1195,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
         <v>44127</v>
@@ -1173,7 +1206,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3">
         <v>44134</v>
@@ -1184,7 +1217,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3">
         <v>44134</v>
@@ -1195,7 +1228,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3">
         <v>44136</v>
@@ -1206,7 +1239,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3">
         <v>44136</v>
@@ -1217,7 +1250,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3">
         <v>44141</v>
@@ -1226,12 +1259,12 @@
         <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3">
         <v>44144</v>
@@ -1240,12 +1273,12 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3">
         <v>44145</v>
@@ -1254,12 +1287,12 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3">
         <v>44147</v>
@@ -1270,7 +1303,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3">
         <v>44149</v>
@@ -1279,12 +1312,12 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3">
         <v>44150</v>
@@ -1293,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1327,20 +1360,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1462,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>44090</v>
@@ -1440,7 +1473,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>44090</v>
@@ -1451,7 +1484,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
         <v>44097</v>
@@ -1462,7 +1495,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1473,7 +1506,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>44098</v>
@@ -1484,7 +1517,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>44104</v>
@@ -1495,7 +1528,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -1506,7 +1539,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -1517,7 +1550,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>44104</v>
@@ -1528,7 +1561,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3">
         <v>44105</v>
@@ -1539,7 +1572,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>44106</v>
@@ -1550,7 +1583,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>44106</v>
@@ -1561,7 +1594,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -1572,7 +1605,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3">
         <v>44112</v>
@@ -1581,12 +1614,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
         <v>44116</v>
@@ -1595,12 +1628,12 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>44117</v>
@@ -1609,12 +1642,12 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>44125</v>
@@ -1623,12 +1656,12 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3">
         <v>44126</v>
@@ -1637,12 +1670,12 @@
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3">
         <v>44127</v>
@@ -1653,7 +1686,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3">
         <v>44134</v>
@@ -1664,7 +1697,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3">
         <v>44134</v>
@@ -1675,7 +1708,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3">
         <v>44136</v>
@@ -1686,7 +1719,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3">
         <v>44136</v>
@@ -1697,7 +1730,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3">
         <v>44141</v>
@@ -1708,7 +1741,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3">
         <v>44113</v>
@@ -1719,7 +1752,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3">
         <v>44145</v>
@@ -1730,7 +1763,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3">
         <v>44147</v>
@@ -1741,7 +1774,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3">
         <v>44147</v>
@@ -1752,7 +1785,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3">
         <v>44148</v>
@@ -1763,7 +1796,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3">
         <v>44148</v>
@@ -1772,12 +1805,12 @@
         <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3">
         <v>44149</v>
@@ -1786,7 +1819,7 @@
         <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1824,17 +1857,17 @@
       <selection activeCell="A41" sqref="A41:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1989,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1967,7 +2000,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -1978,7 +2011,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -1989,7 +2022,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8">
         <v>44104</v>
@@ -1998,9 +2031,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -2009,26 +2042,26 @@
         <v>15</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8">
         <v>44105</v>
@@ -2037,12 +2070,12 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8">
         <v>44105</v>
@@ -2053,7 +2086,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8">
         <v>44106</v>
@@ -2064,7 +2097,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -2075,7 +2108,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3">
         <v>44106</v>
@@ -2086,7 +2119,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>44111</v>
@@ -2097,7 +2130,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -2108,7 +2141,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -2117,12 +2150,12 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>44112</v>
@@ -2133,7 +2166,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -2142,12 +2175,12 @@
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -2158,7 +2191,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
         <v>44117</v>
@@ -2169,7 +2202,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>44125</v>
@@ -2178,12 +2211,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -2192,12 +2225,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8">
-      <c r="A34" t="s">
-        <v>64</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -2206,12 +2239,12 @@
         <v>275</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3">
         <v>44127</v>
@@ -2220,12 +2253,12 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3">
         <v>44130</v>
@@ -2234,12 +2267,12 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3">
         <v>44132</v>
@@ -2250,7 +2283,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -2259,12 +2292,12 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3">
         <v>44134</v>
@@ -2275,7 +2308,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -2286,7 +2319,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -2295,12 +2328,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3">
         <v>44144</v>
@@ -2309,12 +2342,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -2323,12 +2356,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -2337,12 +2370,12 @@
         <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -2351,12 +2384,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -2365,12 +2398,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="3">
         <v>44147</v>
@@ -2381,7 +2414,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3">
         <v>44148</v>
@@ -2390,12 +2423,12 @@
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -2404,12 +2437,12 @@
         <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3">
         <v>44149</v>
@@ -2418,12 +2451,12 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3">
         <v>44149</v>
@@ -2432,7 +2465,7 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2455,20 +2488,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2542,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>28.166666666666668</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2521,7 +2554,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>139.83333333333334</v>
+        <v>130.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2549,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -2557,10 +2590,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -2568,10 +2601,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -2579,10 +2612,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44097</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -2590,10 +2623,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44097</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -2601,10 +2634,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44098</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -2612,10 +2645,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44104</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -2623,10 +2656,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44104</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2634,10 +2667,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44104</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -2645,10 +2678,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44104</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2656,10 +2689,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3">
-        <v>44105</v>
+        <v>43840</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -2667,10 +2700,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
-        <v>44106</v>
+        <v>43871</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -2678,10 +2711,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>44106</v>
+        <v>43871</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -2689,10 +2722,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3">
-        <v>44106</v>
+        <v>43871</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -2700,80 +2733,80 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3">
-        <v>44112</v>
+        <v>44053</v>
       </c>
       <c r="C24">
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
-        <v>44116</v>
+        <v>44175</v>
       </c>
       <c r="C25">
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44117</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44125</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C27">
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44126</v>
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44127</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C29">
         <v>275</v>
@@ -2781,10 +2814,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44134</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -2792,10 +2825,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44134</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C31">
         <v>120</v>
@@ -2803,10 +2836,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3">
-        <v>44136</v>
+        <v>43841</v>
       </c>
       <c r="C32">
         <v>60</v>
@@ -2814,41 +2847,95 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3">
-        <v>44136</v>
+        <v>43993</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3">
-        <v>44149</v>
+        <v>44085</v>
       </c>
       <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44115</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44146</v>
+      </c>
+      <c r="C36">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -2886,17 +2973,17 @@
       <selection activeCell="D47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +3061,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -3007,7 +3094,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>44095</v>
@@ -3018,7 +3105,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -3029,7 +3116,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -3040,7 +3127,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -3051,7 +3138,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -3062,7 +3149,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -3073,7 +3160,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
         <v>44104</v>
@@ -3084,7 +3171,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
         <v>44104</v>
@@ -3095,7 +3182,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>44105</v>
@@ -3106,7 +3193,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
         <v>44106</v>
@@ -3117,7 +3204,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -3128,7 +3215,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3">
         <v>44106</v>
@@ -3139,7 +3226,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>44111</v>
@@ -3150,7 +3237,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -3161,7 +3248,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -3170,12 +3257,12 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>44112</v>
@@ -3186,7 +3273,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -3195,12 +3282,12 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -3209,12 +3296,12 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
         <v>44117</v>
@@ -3225,7 +3312,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>44125</v>
@@ -3234,12 +3321,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -3248,12 +3335,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -3264,7 +3351,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3">
         <v>44130</v>
@@ -3273,12 +3360,12 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
         <v>44132</v>
@@ -3289,7 +3376,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3">
         <v>44134</v>
@@ -3298,12 +3385,12 @@
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -3314,7 +3401,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3">
         <v>44136</v>
@@ -3325,7 +3412,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -3336,7 +3423,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -3345,12 +3432,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3">
         <v>44113</v>
@@ -3359,12 +3446,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -3373,12 +3460,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -3387,12 +3474,12 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -3401,12 +3488,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -3415,12 +3502,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3">
         <v>44147</v>
@@ -3429,12 +3516,12 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3">
         <v>44147</v>
@@ -3443,12 +3530,12 @@
         <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -3457,12 +3544,12 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3">
         <v>44148</v>
@@ -3471,7 +3558,7 @@
         <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3492,6 +3579,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3717,26 +3823,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3754,30 +3867,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EB29B-3C5B-4BE4-B860-87FCFB6A79C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64940C-2ABC-4979-85DB-DF747549010F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30870" yWindow="750" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="123">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>14/11/2020</t>
+  </si>
+  <si>
+    <t>Demo voorbereid en gegeven</t>
+  </si>
+  <si>
+    <t>Pakketselectie groepsopdracht KBS</t>
+  </si>
+  <si>
+    <t>PvE requirements leverancier van videoportaal</t>
   </si>
 </sst>
 </file>
@@ -506,9 +515,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D51" totalsRowShown="0">
-  <autoFilter ref="A9:D51" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D53" totalsRowShown="0">
+  <autoFilter ref="A9:D53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -579,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D50" totalsRowShown="0">
-  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D52" totalsRowShown="0">
+  <autoFilter ref="A9:D52" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -592,7 +601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -915,7 +924,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -971,7 +980,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>36.333333333333336</v>
+        <v>39.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -983,7 +992,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>131.66666666666666</v>
+        <v>128.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1327,6 +1336,17 @@
       </c>
       <c r="D37" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C38">
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1360,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1414,7 +1434,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>43.333333333333336</v>
+        <v>47.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1426,7 +1446,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>124.66666666666666</v>
+        <v>120.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1820,6 +1840,31 @@
       </c>
       <c r="D41" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C42">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44152</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1851,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC51"/>
+  <dimension ref="A1:XFC53"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D43"/>
+      <selection activeCell="A52" sqref="A52:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1908,7 +1953,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>53.416666666666664</v>
+        <v>57.916666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1920,7 +1965,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>114.58333333333334</v>
+        <v>110.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2466,6 +2511,31 @@
       </c>
       <c r="D51" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C52">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44152</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2488,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2542,7 +2612,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>37.333333333333336</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2554,7 +2624,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>130.66666666666666</v>
+        <v>127.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2935,6 +3005,17 @@
       </c>
       <c r="C39">
         <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C40">
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2967,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC50"/>
+  <dimension ref="A1:XFC52"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="A47:D47"/>
+      <selection activeCell="D52" sqref="A51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3024,7 +3105,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>47.666666666666664</v>
+        <v>52.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3036,7 +3117,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>120.33333333333334</v>
+        <v>115.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3559,6 +3640,31 @@
       </c>
       <c r="D50" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C51">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44152</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3579,25 +3685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3823,33 +3910,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3867,4 +3947,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64940C-2ABC-4979-85DB-DF747549010F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC3AE6-5A07-4C6E-BABA-24C26AA55D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="125">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>PvE requirements leverancier van videoportaal</t>
+  </si>
+  <si>
+    <t>Begin responsiveness</t>
+  </si>
+  <si>
+    <t>hamburger menu geïmplementeerd, heeft nog beter styling nodig</t>
   </si>
 </sst>
 </file>
@@ -562,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D53" totalsRowShown="0">
-  <autoFilter ref="A9:D53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -927,16 +933,16 @@
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1384,16 +1390,16 @@
       <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1896,23 +1902,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC53"/>
+  <dimension ref="A1:XFC54"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D53"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1959,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>57.916666666666664</v>
+        <v>59.916666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1965,7 +1971,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>110.08333333333334</v>
+        <v>108.08333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2076,7 +2082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2536,6 +2542,20 @@
       </c>
       <c r="D53" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44152</v>
+      </c>
+      <c r="C54">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2558,20 +2578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3054,17 +3074,17 @@
       <selection activeCell="D52" sqref="A51:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3685,6 +3705,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3910,26 +3949,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3947,30 +3993,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC3AE6-5A07-4C6E-BABA-24C26AA55D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C467E-8BEA-41B5-B397-9866A215F0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="129">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>hamburger menu geïmplementeerd, heeft nog beter styling nodig</t>
+  </si>
+  <si>
+    <t>KBS teamevaluatie</t>
+  </si>
+  <si>
+    <t>rolverdeling</t>
+  </si>
+  <si>
+    <t>Testplan sprint 1 gemaakt</t>
+  </si>
+  <si>
+    <t>Besloten FO niet hierop aan te passen.</t>
   </si>
 </sst>
 </file>
@@ -568,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D56" totalsRowShown="0">
+  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -594,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D52" totalsRowShown="0">
-  <autoFilter ref="A9:D52" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -929,20 +941,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -986,7 +998,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>39.833333333333336</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -998,7 +1010,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>128.16666666666666</v>
+        <v>125.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1353,6 +1365,34 @@
       </c>
       <c r="C38">
         <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1387,19 +1427,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+      <selection activeCell="A44" sqref="A44:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1480,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>47.833333333333336</v>
+        <v>50.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1452,7 +1492,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>120.16666666666666</v>
+        <v>117.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1873,10 +1913,33 @@
         <v>122</v>
       </c>
     </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C45">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
@@ -1902,23 +1965,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC54"/>
+  <dimension ref="A1:XFC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +2022,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>59.916666666666664</v>
+        <v>62.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1971,7 +2034,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>108.08333333333334</v>
+        <v>105.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2082,7 +2145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -2096,7 +2159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -2279,7 +2342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2556,6 +2619,34 @@
       </c>
       <c r="D54" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2579,19 +2670,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A41" sqref="A41:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2723,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>40.833333333333336</v>
+        <v>43.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2644,7 +2735,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>127.16666666666666</v>
+        <v>124.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3036,6 +3127,34 @@
       </c>
       <c r="C40">
         <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3068,23 +3187,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC52"/>
+  <dimension ref="A1:XFC54"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="A51:D52"/>
+      <selection activeCell="A53" sqref="A53:D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +3244,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>52.166666666666664</v>
+        <v>54.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3137,7 +3256,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>115.83333333333334</v>
+        <v>113.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3685,6 +3804,34 @@
       </c>
       <c r="D52" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C54">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3705,25 +3852,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3949,33 +4077,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3993,4 +4114,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C467E-8BEA-41B5-B397-9866A215F0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8227DA4-07F9-414F-B99A-8C1595199A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -567,8 +567,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D46" totalsRowShown="0">
+  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -580,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D56" totalsRowShown="0">
-  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D57" totalsRowShown="0">
+  <autoFilter ref="A9:D57" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -606,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D55" totalsRowShown="0">
+  <autoFilter ref="A9:D55" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -941,20 +941,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1427,19 +1427,19 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D45"/>
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>50.166666666666664</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>117.83333333333334</v>
+        <v>114.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1942,9 +1942,15 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44154</v>
+      </c>
+      <c r="C46" s="2">
+        <v>210</v>
+      </c>
       <c r="D46" s="2"/>
     </row>
   </sheetData>
@@ -1965,23 +1971,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC56"/>
+  <dimension ref="A1:XFC57"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D56"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2028,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>62.25</v>
+        <v>65.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2034,7 +2040,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>105.75</v>
+        <v>102.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2145,7 +2151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2648,6 +2654,18 @@
       <c r="D56" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="10">
+        <v>44154</v>
+      </c>
+      <c r="C57" s="2">
+        <v>210</v>
+      </c>
+      <c r="D57" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2669,20 +2687,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D42"/>
+    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2741,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>43.166666666666664</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2735,7 +2753,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>124.83333333333334</v>
+        <v>121.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3156,6 +3174,18 @@
       <c r="D42" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="10">
+        <v>44154</v>
+      </c>
+      <c r="C43" s="2">
+        <v>210</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -3187,23 +3217,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC54"/>
+  <dimension ref="A1:XFC55"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D54"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3274,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>54.5</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3256,7 +3286,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>113.5</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3833,6 +3863,18 @@
       <c r="D54" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="10">
+        <v>44154</v>
+      </c>
+      <c r="C55" s="2">
+        <v>210</v>
+      </c>
+      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3852,6 +3894,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4077,26 +4138,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4114,30 +4182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8227DA4-07F9-414F-B99A-8C1595199A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3706A5D-12B4-4C00-A1C5-866C28D4CF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="131">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>Besloten FO niet hierop aan te passen.</t>
+  </si>
+  <si>
+    <t>Wireframes geupdated</t>
+  </si>
+  <si>
+    <t>Een aantal wireframes geupdated</t>
   </si>
 </sst>
 </file>
@@ -580,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D57" totalsRowShown="0">
-  <autoFilter ref="A9:D57" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D58" totalsRowShown="0">
+  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -1971,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC57"/>
+  <dimension ref="A1:XFC58"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -2028,7 +2034,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>65.75</v>
+        <v>66.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>102.25</v>
+        <v>101.91666666666667</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2666,6 +2672,20 @@
         <v>210</v>
       </c>
       <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44154</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3219,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
@@ -3894,25 +3914,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4138,33 +4139,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4182,4 +4176,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,22 +5,22 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3706A5D-12B4-4C00-A1C5-866C28D4CF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85B8D6-1CCE-4952-A4E4-B759C2F70F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P1 - Jeremy" sheetId="7" r:id="rId1"/>
+    <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
     <sheet name="P2 - Jan Willem" sheetId="8" r:id="rId2"/>
     <sheet name="P4 - Ivar" sheetId="10" r:id="rId3"/>
     <sheet name="P5 - Roy" sheetId="11" r:id="rId4"/>
     <sheet name="P6 - Jasper" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Jeremy'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Anastasia'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P2 - Jan Willem'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'P4 - Ivar'!$A$1:$D$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P5 - Roy'!$A$1:$D$47</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="133">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Helpen Github werkend krijgen</t>
   </si>
   <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
     <t>Vermeulen</t>
   </si>
   <si>
@@ -434,6 +431,15 @@
   </si>
   <si>
     <t>Een aantal wireframes geupdated</t>
+  </si>
+  <si>
+    <t>Mailserver opzetten</t>
+  </si>
+  <si>
+    <t>sendmail.php aangemaakt voor factuur/contactformulier</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
   </si>
 </sst>
 </file>
@@ -539,9 +545,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D58" totalsRowShown="0">
-  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D59" totalsRowShown="0">
+  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -625,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -947,20 +953,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -973,10 +979,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,7 +1091,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1096,7 +1102,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -1118,7 +1124,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -1129,7 +1135,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>44106</v>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
         <v>44111</v>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3">
         <v>44112</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3">
         <v>44112</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3">
         <v>44116</v>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3">
         <v>44117</v>
@@ -1206,7 +1212,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>44125</v>
@@ -1217,7 +1223,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>44126</v>
@@ -1228,7 +1234,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3">
         <v>44127</v>
@@ -1239,7 +1245,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3">
         <v>44134</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3">
         <v>44134</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3">
         <v>44136</v>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3">
         <v>44136</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3">
         <v>44141</v>
@@ -1292,12 +1298,12 @@
         <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
         <v>44144</v>
@@ -1306,12 +1312,12 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3">
         <v>44145</v>
@@ -1320,12 +1326,12 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>44147</v>
@@ -1336,7 +1342,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3">
         <v>44149</v>
@@ -1345,12 +1351,12 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3">
         <v>44150</v>
@@ -1359,12 +1365,12 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="3">
         <v>44151</v>
@@ -1375,7 +1381,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3">
         <v>44153</v>
@@ -1384,12 +1390,12 @@
         <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3">
         <v>44153</v>
@@ -1398,7 +1404,7 @@
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1432,20 +1438,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>44097</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>44098</v>
@@ -1589,7 +1595,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
         <v>44104</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
         <v>44104</v>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
         <v>44105</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>44106</v>
@@ -1655,7 +1661,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
         <v>44106</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
         <v>44112</v>
@@ -1686,12 +1692,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>44116</v>
@@ -1700,12 +1706,12 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
         <v>44117</v>
@@ -1714,12 +1720,12 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
         <v>44125</v>
@@ -1728,12 +1734,12 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3">
         <v>44126</v>
@@ -1742,12 +1748,12 @@
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3">
         <v>44127</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3">
         <v>44134</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3">
         <v>44134</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>44136</v>
@@ -1791,7 +1797,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3">
         <v>44136</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3">
         <v>44141</v>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3">
         <v>44113</v>
@@ -1824,7 +1830,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
         <v>44145</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3">
         <v>44147</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3">
         <v>44147</v>
@@ -1857,7 +1863,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3">
         <v>44148</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="3">
         <v>44148</v>
@@ -1877,12 +1883,12 @@
         <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3">
         <v>44149</v>
@@ -1891,12 +1897,12 @@
         <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="3">
         <v>44151</v>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="3">
         <v>44152</v>
@@ -1916,12 +1922,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3">
         <v>44153</v>
@@ -1930,12 +1936,12 @@
         <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3">
         <v>44153</v>
@@ -1944,12 +1950,12 @@
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="10">
         <v>44154</v>
@@ -1977,23 +1983,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC58"/>
+  <dimension ref="A1:XFC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2040,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>66.083333333333329</v>
+        <v>68.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2046,7 +2052,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>101.91666666666667</v>
+        <v>99.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8">
         <v>44104</v>
@@ -2157,9 +2163,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -2168,26 +2174,26 @@
         <v>15</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8">
         <v>44105</v>
@@ -2196,12 +2202,12 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8">
         <v>44105</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8">
         <v>44106</v>
@@ -2223,7 +2229,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
         <v>44106</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>44111</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -2276,12 +2282,12 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>44112</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -2301,12 +2307,12 @@
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
         <v>44117</v>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>44125</v>
@@ -2337,12 +2343,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -2351,12 +2357,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8">
-      <c r="A34" t="s">
-        <v>63</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -2365,12 +2371,12 @@
         <v>275</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3">
         <v>44127</v>
@@ -2379,12 +2385,12 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3">
         <v>44130</v>
@@ -2393,12 +2399,12 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3">
         <v>44132</v>
@@ -2409,7 +2415,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -2418,12 +2424,12 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3">
         <v>44134</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -2445,7 +2451,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -2454,12 +2460,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3">
         <v>44144</v>
@@ -2468,12 +2474,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -2482,12 +2488,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -2496,12 +2502,12 @@
         <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -2510,12 +2516,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -2524,12 +2530,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3">
         <v>44147</v>
@@ -2540,7 +2546,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="3">
         <v>44148</v>
@@ -2549,12 +2555,12 @@
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -2563,12 +2569,12 @@
         <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3">
         <v>44149</v>
@@ -2577,12 +2583,12 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3">
         <v>44149</v>
@@ -2591,12 +2597,12 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3">
         <v>44151</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3">
         <v>44152</v>
@@ -2616,12 +2622,12 @@
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="3">
         <v>44152</v>
@@ -2630,12 +2636,12 @@
         <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="3">
         <v>44153</v>
@@ -2644,12 +2650,12 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3">
         <v>44153</v>
@@ -2658,12 +2664,12 @@
         <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" s="10">
         <v>44154</v>
@@ -2675,7 +2681,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="3">
         <v>44154</v>
@@ -2684,7 +2690,21 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>130</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44154</v>
+      </c>
+      <c r="C59">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2711,16 +2731,16 @@
       <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -2812,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -2823,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -2831,10 +2851,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -2842,10 +2862,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -2853,10 +2873,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -2864,10 +2884,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -2875,10 +2895,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2886,10 +2906,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -2897,10 +2917,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2908,7 +2928,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
         <v>43840</v>
@@ -2919,7 +2939,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>43871</v>
@@ -2930,7 +2950,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
         <v>43871</v>
@@ -2941,7 +2961,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>43871</v>
@@ -2952,7 +2972,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
         <v>44053</v>
@@ -2961,12 +2981,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>44175</v>
@@ -2975,57 +2995,57 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27">
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29">
         <v>275</v>
@@ -3033,10 +3053,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -3044,10 +3064,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>120</v>
@@ -3055,7 +3075,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>43841</v>
@@ -3066,7 +3086,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
         <v>43993</v>
@@ -3075,12 +3095,12 @@
         <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3">
         <v>44085</v>
@@ -3089,12 +3109,12 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
         <v>44115</v>
@@ -3103,12 +3123,12 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3">
         <v>44146</v>
@@ -3117,12 +3137,12 @@
         <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3">
         <v>44176</v>
@@ -3133,24 +3153,24 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>150</v>
@@ -3158,7 +3178,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3">
         <v>44151</v>
@@ -3169,7 +3189,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="3">
         <v>44153</v>
@@ -3178,12 +3198,12 @@
         <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="3">
         <v>44153</v>
@@ -3192,12 +3212,12 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="10">
         <v>44154</v>
@@ -3243,17 +3263,17 @@
       <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3351,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
         <v>44090</v>
@@ -3375,7 +3395,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>44097</v>
@@ -3386,7 +3406,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>44097</v>
@@ -3397,7 +3417,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>44098</v>
@@ -3408,7 +3428,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>44104</v>
@@ -3419,7 +3439,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -3430,7 +3450,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>44104</v>
@@ -3441,7 +3461,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>44104</v>
@@ -3452,7 +3472,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
         <v>44105</v>
@@ -3463,7 +3483,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3">
         <v>44106</v>
@@ -3474,7 +3494,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>44106</v>
@@ -3485,7 +3505,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
         <v>44106</v>
@@ -3496,7 +3516,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>44111</v>
@@ -3507,7 +3527,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -3518,7 +3538,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -3527,12 +3547,12 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>44112</v>
@@ -3543,7 +3563,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -3552,12 +3572,12 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -3566,12 +3586,12 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
         <v>44117</v>
@@ -3582,7 +3602,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>44125</v>
@@ -3591,12 +3611,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -3605,12 +3625,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -3621,7 +3641,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="3">
         <v>44130</v>
@@ -3630,12 +3650,12 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3">
         <v>44132</v>
@@ -3646,7 +3666,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="3">
         <v>44134</v>
@@ -3655,12 +3675,12 @@
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -3671,7 +3691,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3">
         <v>44136</v>
@@ -3682,7 +3702,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -3693,7 +3713,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -3702,12 +3722,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3">
         <v>44113</v>
@@ -3716,12 +3736,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -3730,12 +3750,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -3744,12 +3764,12 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -3758,12 +3778,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -3772,12 +3792,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3">
         <v>44147</v>
@@ -3786,12 +3806,12 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="3">
         <v>44147</v>
@@ -3800,12 +3820,12 @@
         <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -3814,12 +3834,12 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3">
         <v>44148</v>
@@ -3828,12 +3848,12 @@
         <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="3">
         <v>44151</v>
@@ -3844,7 +3864,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="3">
         <v>44152</v>
@@ -3853,12 +3873,12 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="3">
         <v>44153</v>
@@ -3867,12 +3887,12 @@
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3">
         <v>44153</v>
@@ -3881,12 +3901,12 @@
         <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="10">
         <v>44154</v>
@@ -3914,6 +3934,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4139,26 +4178,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4176,30 +4222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85B8D6-1CCE-4952-A4E4-B759C2F70F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A673AD1-2CF9-4813-BFDA-D5D8144951BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
     <sheet name="P2 - Jan Willem" sheetId="8" r:id="rId2"/>
-    <sheet name="P4 - Ivar" sheetId="10" r:id="rId3"/>
-    <sheet name="P5 - Roy" sheetId="11" r:id="rId4"/>
-    <sheet name="P6 - Jasper" sheetId="6" r:id="rId5"/>
+    <sheet name="P3 - Ivar" sheetId="10" r:id="rId3"/>
+    <sheet name="P4 - Roy" sheetId="11" r:id="rId4"/>
+    <sheet name="P5 - Jasper" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Anastasia'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P2 - Jan Willem'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'P4 - Ivar'!$A$1:$D$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'P5 - Roy'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'P6 - Jasper'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'P3 - Ivar'!$A$1:$D$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P4 - Roy'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P5 - Jasper'!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Weekverslag ingevuld</t>
   </si>
   <si>
-    <t>31-9-2020</t>
-  </si>
-  <si>
     <t>Onvolledige database, onjuist Testplan. 1-10-2020 verbeterd</t>
   </si>
   <si>
@@ -440,6 +437,15 @@
   </si>
   <si>
     <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Demo doorgelopen</t>
+  </si>
+  <si>
+    <t>Met Ivar demo extra doorgegaan</t>
+  </si>
+  <si>
+    <t>31/9/2020</t>
   </si>
 </sst>
 </file>
@@ -592,8 +598,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D59" totalsRowShown="0">
-  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D67" totalsRowShown="0">
+  <autoFilter ref="A9:D67" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
+    <sortCondition ref="B9:B67"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
@@ -953,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -979,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1010,7 +1019,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.166666666666664</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1022,7 +1031,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.83333333333334</v>
+        <v>125.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1168,7 +1177,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3">
         <v>44112</v>
@@ -1179,7 +1188,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3">
         <v>44112</v>
@@ -1190,7 +1199,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3">
         <v>44116</v>
@@ -1201,7 +1210,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3">
         <v>44117</v>
@@ -1223,7 +1232,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3">
         <v>44126</v>
@@ -1234,7 +1243,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3">
         <v>44127</v>
@@ -1245,7 +1254,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3">
         <v>44134</v>
@@ -1256,7 +1265,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3">
         <v>44134</v>
@@ -1267,7 +1276,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3">
         <v>44136</v>
@@ -1278,7 +1287,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3">
         <v>44136</v>
@@ -1289,7 +1298,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3">
         <v>44141</v>
@@ -1298,12 +1307,12 @@
         <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3">
         <v>44144</v>
@@ -1312,12 +1321,12 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3">
         <v>44145</v>
@@ -1326,7 +1335,7 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1342,7 +1351,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3">
         <v>44149</v>
@@ -1351,12 +1360,12 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3">
         <v>44150</v>
@@ -1365,12 +1374,12 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="3">
         <v>44151</v>
@@ -1381,30 +1390,44 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3">
         <v>44153</v>
       </c>
       <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C41">
         <v>80</v>
       </c>
-      <c r="D40" t="s">
-        <v>127</v>
+      <c r="D41" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1683,7 +1706,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>44112</v>
@@ -1692,12 +1715,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
         <v>44116</v>
@@ -1706,12 +1729,12 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>44117</v>
@@ -1720,7 +1743,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1734,12 +1757,12 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3">
         <v>44126</v>
@@ -1748,12 +1771,12 @@
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3">
         <v>44127</v>
@@ -1764,7 +1787,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3">
         <v>44134</v>
@@ -1775,7 +1798,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3">
         <v>44134</v>
@@ -1786,7 +1809,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>44136</v>
@@ -1797,7 +1820,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>44136</v>
@@ -1808,7 +1831,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3">
         <v>44141</v>
@@ -1819,7 +1842,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3">
         <v>44113</v>
@@ -1830,7 +1853,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
         <v>44145</v>
@@ -1841,7 +1864,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <v>44147</v>
@@ -1852,7 +1875,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3">
         <v>44147</v>
@@ -1863,7 +1886,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3">
         <v>44148</v>
@@ -1874,7 +1897,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="3">
         <v>44148</v>
@@ -1883,12 +1906,12 @@
         <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3">
         <v>44149</v>
@@ -1897,12 +1920,12 @@
         <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3">
         <v>44151</v>
@@ -1913,7 +1936,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="3">
         <v>44152</v>
@@ -1922,12 +1945,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3">
         <v>44153</v>
@@ -1936,12 +1959,12 @@
         <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3">
         <v>44153</v>
@@ -1950,7 +1973,7 @@
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1983,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC59"/>
+  <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2040,7 +2063,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>68.083333333333329</v>
+        <v>68.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2052,7 +2075,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>99.916666666666671</v>
+        <v>99.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2165,7 +2188,7 @@
     </row>
     <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>44104</v>
@@ -2179,21 +2202,21 @@
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>44105</v>
@@ -2202,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2262,7 +2285,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -2273,7 +2296,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -2282,7 +2305,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2298,7 +2321,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -2307,12 +2330,12 @@
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -2343,12 +2366,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -2357,12 +2380,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -2371,12 +2394,12 @@
         <v>275</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3">
         <v>44127</v>
@@ -2385,12 +2408,12 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3">
         <v>44130</v>
@@ -2399,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2415,7 +2438,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -2424,12 +2447,12 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3">
         <v>44134</v>
@@ -2440,7 +2463,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -2451,7 +2474,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -2460,12 +2483,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3">
         <v>44144</v>
@@ -2474,12 +2497,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -2488,12 +2511,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -2502,12 +2525,12 @@
         <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -2516,12 +2539,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -2530,7 +2553,7 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2546,7 +2569,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3">
         <v>44148</v>
@@ -2555,12 +2578,12 @@
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -2569,12 +2592,12 @@
         <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3">
         <v>44149</v>
@@ -2583,12 +2606,12 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3">
         <v>44149</v>
@@ -2597,12 +2620,12 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="3">
         <v>44151</v>
@@ -2613,98 +2636,112 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B53" s="3">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3">
         <v>44152</v>
       </c>
       <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
         <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="C55">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3">
         <v>44153</v>
       </c>
       <c r="C56">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44153</v>
+      </c>
+      <c r="C57">
         <v>80</v>
       </c>
-      <c r="D56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B58" s="10">
         <v>44154</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>210</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="3">
-        <v>44154</v>
-      </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3">
         <v>44154</v>
       </c>
       <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44154</v>
+      </c>
+      <c r="C60">
         <v>120</v>
       </c>
-      <c r="D59" t="s">
-        <v>131</v>
+      <c r="D60" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2858,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -2832,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -2843,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -2854,7 +2891,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -2865,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -2876,7 +2913,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -2887,7 +2924,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -2898,7 +2935,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2909,7 +2946,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -2920,7 +2957,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2972,7 +3009,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>44053</v>
@@ -2981,12 +3018,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
         <v>44175</v>
@@ -2995,21 +3032,21 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3017,35 +3054,35 @@
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>275</v>
@@ -3053,10 +3090,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -3064,10 +3101,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31">
         <v>120</v>
@@ -3075,7 +3112,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>43841</v>
@@ -3086,7 +3123,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3">
         <v>43993</v>
@@ -3095,12 +3132,12 @@
         <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3">
         <v>44085</v>
@@ -3109,12 +3146,12 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3">
         <v>44115</v>
@@ -3123,12 +3160,12 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3">
         <v>44146</v>
@@ -3137,12 +3174,12 @@
         <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="3">
         <v>44176</v>
@@ -3153,24 +3190,24 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>150</v>
@@ -3178,7 +3215,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="3">
         <v>44151</v>
@@ -3189,7 +3226,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3">
         <v>44153</v>
@@ -3198,12 +3235,12 @@
         <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="3">
         <v>44153</v>
@@ -3212,7 +3249,7 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3260,7 +3297,7 @@
   <dimension ref="A1:XFC55"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3527,7 +3564,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3">
         <v>44111</v>
@@ -3538,7 +3575,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
         <v>44112</v>
@@ -3547,7 +3584,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3563,7 +3600,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
         <v>44116</v>
@@ -3572,12 +3609,12 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
         <v>44117</v>
@@ -3586,7 +3623,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3611,12 +3648,12 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3">
         <v>44126</v>
@@ -3625,12 +3662,12 @@
         <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3">
         <v>44127</v>
@@ -3641,7 +3678,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3">
         <v>44130</v>
@@ -3650,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3666,7 +3703,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3">
         <v>44134</v>
@@ -3675,12 +3712,12 @@
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="3">
         <v>44134</v>
@@ -3691,7 +3728,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3">
         <v>44136</v>
@@ -3702,7 +3739,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3">
         <v>44136</v>
@@ -3713,7 +3750,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="3">
         <v>44141</v>
@@ -3722,12 +3759,12 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3">
         <v>44113</v>
@@ -3736,12 +3773,12 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3">
         <v>44145</v>
@@ -3750,12 +3787,12 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3">
         <v>44145</v>
@@ -3764,12 +3801,12 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="10">
         <v>44146</v>
@@ -3778,12 +3815,12 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="10">
         <v>44146</v>
@@ -3792,12 +3829,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3">
         <v>44147</v>
@@ -3806,12 +3843,12 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="3">
         <v>44147</v>
@@ -3820,12 +3857,12 @@
         <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="3">
         <v>44148</v>
@@ -3834,12 +3871,12 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3">
         <v>44148</v>
@@ -3848,12 +3885,12 @@
         <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" s="3">
         <v>44151</v>
@@ -3864,7 +3901,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3">
         <v>44152</v>
@@ -3873,12 +3910,12 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3">
         <v>44153</v>
@@ -3887,12 +3924,12 @@
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3">
         <v>44153</v>
@@ -3901,7 +3938,7 @@
         <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4">

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A673AD1-2CF9-4813-BFDA-D5D8144951BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953216E5-F813-4A8F-B727-160AAE62D236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="139">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -446,6 +446,18 @@
   </si>
   <si>
     <t>31/9/2020</t>
+  </si>
+  <si>
+    <t>Begin sprint 2</t>
+  </si>
+  <si>
+    <t>Klein begin gemaakt met de inlogpagina</t>
+  </si>
+  <si>
+    <t>Documenten bijgewerkt</t>
+  </si>
+  <si>
+    <t>FO geüpdate, trello geüpdate, Testplan gemaakt</t>
   </si>
 </sst>
 </file>
@@ -551,9 +563,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D55" totalsRowShown="0">
-  <autoFilter ref="A9:D55" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D57" totalsRowShown="0">
+  <autoFilter ref="A9:D57" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -640,7 +652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2008,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3294,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC55"/>
+  <dimension ref="A1:XFC57"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3351,7 +3363,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>58</v>
+        <v>60.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3363,7 +3375,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>110</v>
+        <v>107.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3952,6 +3964,34 @@
         <v>210</v>
       </c>
       <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44154</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44155</v>
+      </c>
+      <c r="C57">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3971,25 +4011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4215,33 +4236,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4259,4 +4273,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953216E5-F813-4A8F-B727-160AAE62D236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2D264-5BDF-41FD-BF05-FBA8AE7DA3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="141">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>FO geüpdate, trello geüpdate, Testplan gemaakt</t>
+  </si>
+  <si>
+    <t>Verder gegaan inlogpagina</t>
+  </si>
+  <si>
+    <t>Hashed passwords onderzocht, doet het nog niet. Dingen kunnen nu in de database gezet worden. Nog redelijk  veel dingen die verbeterd moeten worden</t>
   </si>
 </sst>
 </file>
@@ -639,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D57" totalsRowShown="0">
-  <autoFilter ref="A9:D57" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D58" totalsRowShown="0">
+  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -3306,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC57"/>
+  <dimension ref="A1:XFC58"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3363,7 +3369,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>60.75</v>
+        <v>65.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>107.25</v>
+        <v>102.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3991,6 +3997,20 @@
       </c>
       <c r="D57" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44156</v>
+      </c>
+      <c r="C58">
+        <v>270</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4011,6 +4031,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4236,26 +4275,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4273,30 +4319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2D264-5BDF-41FD-BF05-FBA8AE7DA3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816A2B6-4EB8-4B53-9560-EC010B9E5111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="143">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>Hashed passwords onderzocht, doet het nog niet. Dingen kunnen nu in de database gezet worden. Nog redelijk  veel dingen die verbeterd moeten worden</t>
+  </si>
+  <si>
+    <t>Testplan samenvoegen &amp; git op windows</t>
+  </si>
+  <si>
+    <t>testplannen samengevoegd van iedereen en samen met ivar git fixen op mijn windows pc omdat het niet meer werkte op mijn mac OS</t>
   </si>
 </sst>
 </file>
@@ -603,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D46" totalsRowShown="0">
-  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D47" totalsRowShown="0">
+  <autoFilter ref="A9:D47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -980,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -1477,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1533,7 +1539,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>53.666666666666664</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>114.33333333333334</v>
+        <v>112.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2005,6 +2011,20 @@
         <v>210</v>
       </c>
       <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2026,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2782,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
@@ -3314,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -4031,25 +4051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4275,33 +4276,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4319,4 +4313,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816A2B6-4EB8-4B53-9560-EC010B9E5111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE4CE3-D79E-4C37-B423-C68311A244FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -470,6 +470,24 @@
   </si>
   <si>
     <t>testplannen samengevoegd van iedereen en samen met ivar git fixen op mijn windows pc omdat het niet meer werkte op mijn mac OS</t>
+  </si>
+  <si>
+    <t>Teamoverleg</t>
+  </si>
+  <si>
+    <t>FO aangepast met conversieverhogende maatregelen, overleg met docent over voortgang project</t>
+  </si>
+  <si>
+    <t>Concept testplan sprint 2 gemaakt</t>
+  </si>
+  <si>
+    <t>Roy afwezig, testplan verder wel compleet</t>
+  </si>
+  <si>
+    <t>Met Ana demo extra doorgegaan</t>
+  </si>
+  <si>
+    <t>Problemen oplossen inlogpagina</t>
   </si>
 </sst>
 </file>
@@ -575,9 +593,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -986,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1043,7 +1061,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.666666666666664</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1055,7 +1073,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.33333333333334</v>
+        <v>120.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1452,6 +1470,45 @@
       </c>
       <c r="D41" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44155</v>
+      </c>
+      <c r="C42">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2046,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2683,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2802,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
@@ -4051,6 +4108,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4276,26 +4352,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4313,30 +4396,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE4CE3-D79E-4C37-B423-C68311A244FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C67F81-E645-4FF9-B53A-0DD47B904701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="151">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>Problemen oplossen inlogpagina</t>
+  </si>
+  <si>
+    <t>Testplan compleet als het goed is</t>
+  </si>
+  <si>
+    <t>Een nietwerkende oplossing geprobeerd. Niet aan gedacht dat als het niet werkt ik het hele document zo goed als op nieuw kon maken, wat daarna gebeurd is. Wel een beter idee gekregen van hoe het moet, en het ziet er overzichtelijker uit</t>
   </si>
 </sst>
 </file>
@@ -593,9 +599,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,8 +675,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D58" totalsRowShown="0">
-  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D60" totalsRowShown="0">
+  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -682,7 +688,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1004,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView view="pageLayout" topLeftCell="A33" zoomScale="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3389,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC58"/>
+  <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A44" zoomScale="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3446,7 +3452,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>65.25</v>
+        <v>68.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3458,7 +3464,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>102.75</v>
+        <v>99.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4088,6 +4094,34 @@
       </c>
       <c r="D58" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C59">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C60">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4108,25 +4142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4352,33 +4367,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4396,4 +4404,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C67F81-E645-4FF9-B53A-0DD47B904701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE6C46-997B-4EAD-BDAF-3BDF661CB9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Een nietwerkende oplossing geprobeerd. Niet aan gedacht dat als het niet werkt ik het hele document zo goed als op nieuw kon maken, wat daarna gebeurd is. Wel een beter idee gekregen van hoe het moet, en het ziet er overzichtelijker uit</t>
+  </si>
+  <si>
+    <t>Mail werkend</t>
+  </si>
+  <si>
+    <t>Mail voor support werkt, Voor browser niet. SMTP is nog niet werkent. Ligt niet aan de Auth, port of host. Errorlog geeft niets nuttigs terug, behalve dat de connectie niet gemaakt kan worden.</t>
   </si>
 </sst>
 </file>
@@ -1010,20 +1016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A33" zoomScale="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1552,16 +1558,16 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2107,23 +2113,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC60"/>
+  <dimension ref="A1:XFC61"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2170,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>68.583333333333329</v>
+        <v>72.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2176,7 +2182,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>99.416666666666671</v>
+        <v>95.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2287,7 +2293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2843,6 +2849,20 @@
       </c>
       <c r="D60" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44157</v>
+      </c>
+      <c r="C61">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2869,16 +2889,16 @@
       <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3397,21 +3417,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A44" zoomScale="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4142,6 +4162,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4367,26 +4406,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4404,30 +4450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE6C46-997B-4EAD-BDAF-3BDF661CB9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22A251-9833-4E4D-BB34-28CC538AE317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="P5 - Jasper" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Anastasia'!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1 - Anastasia'!$A$1:$D$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P2 - Jan Willem'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'P3 - Ivar'!$A$1:$D$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P4 - Roy'!$A$1:$D$47</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>Mail voor support werkt, Voor browser niet. SMTP is nog niet werkent. Ligt niet aan de Auth, port of host. Errorlog geeft niets nuttigs terug, behalve dat de connectie niet gemaakt kan worden.</t>
+  </si>
+  <si>
+    <t>rolverdeling gemaakt, database gestandaardiseerd</t>
+  </si>
+  <si>
+    <t>Select CSS goed gemaakt</t>
   </si>
 </sst>
 </file>
@@ -623,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D46" totalsRowShown="0">
+  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -639,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D47" totalsRowShown="0">
-  <autoFilter ref="A9:D47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D48" totalsRowShown="0">
+  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -681,8 +687,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D60" totalsRowShown="0">
-  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D62" totalsRowShown="0">
+  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1014,22 +1020,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="A43:D43"/>
+    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1078,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>47.666666666666664</v>
+        <f>SUM(C10:C153)/60</f>
+        <v>49.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1084,8 +1090,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>120.33333333333334</v>
+        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
+        <v>118.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1524,15 +1530,35 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1552,22 +1578,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1634,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>55.666666666666664</v>
+        <v>57.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1620,7 +1646,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>112.33333333333334</v>
+        <v>110.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2093,6 +2119,20 @@
       </c>
       <c r="D47" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2113,23 +2153,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC61"/>
+  <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2210,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>72.583333333333329</v>
+        <v>74.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2182,7 +2222,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>95.416666666666671</v>
+        <v>93.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2293,7 +2333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2307,7 +2347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2490,7 +2530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2863,6 +2903,20 @@
       </c>
       <c r="D61" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2885,20 +2939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:D43"/>
+    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2993,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>46.666666666666664</v>
+        <v>48.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2951,7 +3005,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>121.33333333333334</v>
+        <v>119.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3384,6 +3438,20 @@
         <v>210</v>
       </c>
       <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -3415,23 +3483,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC60"/>
+  <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3471,8 +3539,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>68.25</v>
+        <f>SUM(C10:C153)/60</f>
+        <v>70.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3483,8 +3551,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>99.75</v>
+        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
+        <v>97.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4142,6 +4210,31 @@
       </c>
       <c r="D60" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C61">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4162,25 +4255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4406,33 +4480,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4450,4 +4517,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22A251-9833-4E4D-BB34-28CC538AE317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E45CB-E795-4DB9-A82C-EA20072B08CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="157">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>Select CSS goed gemaakt</t>
+  </si>
+  <si>
+    <t>Test sendMail.php</t>
+  </si>
+  <si>
+    <t>Werkt perfect</t>
   </si>
 </sst>
 </file>
@@ -1023,19 +1029,19 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D46"/>
+      <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1580,20 +1586,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2153,23 +2159,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC62"/>
+  <dimension ref="A1:XFC63"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2216,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>74.083333333333329</v>
+        <v>75.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2222,7 +2228,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>93.916666666666671</v>
+        <v>92.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2333,7 +2339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2917,6 +2923,20 @@
       </c>
       <c r="D62" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2939,20 +2959,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3486,20 +3506,20 @@
   <dimension ref="A1:XFC62"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4255,6 +4275,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4480,26 +4519,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4517,30 +4563,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E45CB-E795-4DB9-A82C-EA20072B08CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4824F6-ECE7-4D77-8576-4339DB529143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="159">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>Werkt perfect</t>
+  </si>
+  <si>
+    <t>bezig met invoeren bedrag en controle daarvan</t>
+  </si>
+  <si>
+    <t>Bedrag kan ingevoerd worden maar het controleren ervan in confirmation.php gebeurt nog niet.</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D48" totalsRowShown="0">
-  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D49" totalsRowShown="0">
+  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1032,16 +1038,16 @@
       <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1584,22 +1590,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>57.166666666666664</v>
+        <v>60.166666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1652,7 +1658,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>110.83333333333334</v>
+        <v>107.83333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2139,6 +2145,20 @@
       </c>
       <c r="D48" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44160</v>
+      </c>
+      <c r="C49">
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2161,21 +2181,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2536,7 +2556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2963,16 +2983,16 @@
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3509,17 +3529,17 @@
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4275,25 +4295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4519,33 +4520,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4563,4 +4557,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4824F6-ECE7-4D77-8576-4339DB529143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F0605-F41D-484A-9899-DFAFC4E2F8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>Bedrag kan ingevoerd worden maar het controleren ervan in confirmation.php gebeurt nog niet.</t>
+  </si>
+  <si>
+    <t>De vraag was hoe je het controleren voor het kloppen van het wachtwoord en het al bestaan van het emailadres kon doen. Beetje met sweetalert gewerkt met Ivar. Uiteindelijk was het antwoord dat het niet kon op de manier die ik nu had (alles op 1 pagina en laten zien dmv posts). Besloten om later 3 verschillende pagina's te maken.</t>
+  </si>
+  <si>
+    <t>De 3 pagina's gemaakt. Het controleren gebeurt nu in hetzelfde bestand, en je wordt niet meer doorgestuurd door het formulier. Dit wordt gedaan door de functie header(), maar dit is minder goed voor de security. Verder besloten de velden behalve het wachtwoord gevuld te laten wanneer er een foutmelding kwam. Ook is de functionaliteit voor de inlogpagina gemaakt en bestaat er een sessie account na het succesvol inloggen.</t>
   </si>
 </sst>
 </file>
@@ -699,8 +705,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D62" totalsRowShown="0">
-  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D64" totalsRowShown="0">
+  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1592,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -3523,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC62"/>
+  <dimension ref="A1:XFC64"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>70.083333333333329</v>
+        <v>75.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3592,7 +3598,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>97.916666666666671</v>
+        <v>92.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4275,6 +4281,34 @@
       </c>
       <c r="C62">
         <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44158</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44161</v>
+      </c>
+      <c r="C64">
+        <v>240</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4295,6 +4329,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4520,26 +4573,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4557,30 +4617,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F0605-F41D-484A-9899-DFAFC4E2F8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860F0C1-0977-4EFE-ACD6-F480745A8652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="165">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>De 3 pagina's gemaakt. Het controleren gebeurt nu in hetzelfde bestand, en je wordt niet meer doorgestuurd door het formulier. Dit wordt gedaan door de functie header(), maar dit is minder goed voor de security. Verder besloten de velden behalve het wachtwoord gevuld te laten wanneer er een foutmelding kwam. Ook is de functionaliteit voor de inlogpagina gemaakt en bestaat er een sessie account na het succesvol inloggen.</t>
+  </si>
+  <si>
+    <t>KBS op locatie/Inlogpagina</t>
+  </si>
+  <si>
+    <t>Jasper geholpen inlogpagina op te splitsen in 3. Het controleren gebeurt nu in hetzelfde bestand, en je wordt niet meer doorgestuurd door het formulier. Dit wordt gedaan door de functie header(), maar dit is minder goed voor de security. Verder besloten de velden behalve het wachtwoord gevuld te laten wanneer er een foutmelding kwam. Ook is de functionaliteit voor de inlogpagina gemaakt en bestaat er een sessie account na het succesvol inloggen.</t>
+  </si>
+  <si>
+    <t>Betaalproces</t>
+  </si>
+  <si>
+    <t>Jan Willem geholpen met structuur betaalproces, besloten enkele functies achterwege te laten vanwege tijdgebrek.</t>
   </si>
 </sst>
 </file>
@@ -629,9 +641,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,8 +659,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D46" totalsRowShown="0">
-  <autoFilter ref="A9:D46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D48" totalsRowShown="0">
+  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -718,7 +730,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1038,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C46"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1097,7 +1109,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>49.5</v>
+        <v>55.583333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1109,7 +1121,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>118.5</v>
+        <v>112.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1573,10 +1585,32 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="10">
+        <v>44161</v>
+      </c>
+      <c r="C47">
+        <v>240</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C48">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3531,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4329,25 +4363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4573,33 +4588,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4617,4 +4625,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860F0C1-0977-4EFE-ACD6-F480745A8652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667196E-D924-403E-9430-FF0DB4B77F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="169">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>Jan Willem geholpen met structuur betaalproces, besloten enkele functies achterwege te laten vanwege tijdgebrek.</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Activity Diagram gemaakt, geholpen met code</t>
+  </si>
+  <si>
+    <t>Generate PDF</t>
+  </si>
+  <si>
+    <t>Genereren PDF geholpen bij Roy</t>
   </si>
 </sst>
 </file>
@@ -641,9 +653,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,7 +742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,20 +1064,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1633,19 +1645,19 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2219,23 +2231,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC63"/>
+  <dimension ref="A1:XFC66"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2288,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>75.083333333333329</v>
+        <v>82.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2288,7 +2300,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>92.916666666666671</v>
+        <v>85.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2399,7 +2411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2997,6 +3009,48 @@
       </c>
       <c r="D63" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44161</v>
+      </c>
+      <c r="C64">
+        <v>240</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C65">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3023,16 +3077,16 @@
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3565,21 +3619,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC64"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4363,6 +4417,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4588,26 +4661,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4625,30 +4705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667196E-D924-403E-9430-FF0DB4B77F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D6ACDC-3336-410F-A51B-E6A7A20709FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="173">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>Genereren PDF geholpen bij Roy</t>
+  </si>
+  <si>
+    <t>pay.php/confirmation.php</t>
+  </si>
+  <si>
+    <t>Factuur</t>
+  </si>
+  <si>
+    <t>Structuur betaalproces, besloten enkele functies achterwege te laten vanwege tijdgebrek.</t>
+  </si>
+  <si>
+    <t>Weekverslag</t>
   </si>
 </sst>
 </file>
@@ -653,9 +665,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,8 +683,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D48" totalsRowShown="0">
-  <autoFilter ref="A9:D48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D49" totalsRowShown="0">
+  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -687,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D49" totalsRowShown="0">
-  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D53" totalsRowShown="0">
+  <autoFilter ref="A9:D53" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -716,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D49" totalsRowShown="0">
+  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -729,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D64" totalsRowShown="0">
-  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D66" totalsRowShown="0">
+  <autoFilter ref="A9:D66" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -742,7 +754,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1062,22 +1074,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView view="pageLayout" topLeftCell="A40" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1133,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>55.583333333333336</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1133,7 +1145,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>112.41666666666666</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1622,6 +1634,17 @@
       </c>
       <c r="D48" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1642,22 +1665,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C49"/>
+    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1721,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>60.166666666666664</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1710,7 +1733,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>107.83333333333334</v>
+        <v>101.33333333333333</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2211,6 +2234,53 @@
       </c>
       <c r="D49" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44161</v>
+      </c>
+      <c r="C50">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44161</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C52">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2231,23 +2301,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC66"/>
+  <dimension ref="A1:XFC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2358,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>82.083333333333329</v>
+        <v>82.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2300,7 +2370,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>85.916666666666671</v>
+        <v>85.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2411,7 +2481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3051,6 +3121,17 @@
       </c>
       <c r="D66" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3071,22 +3152,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3208,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>48.166666666666664</v>
+        <v>56.083333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3139,7 +3220,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>119.83333333333334</v>
+        <v>111.91666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3588,15 +3669,60 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="10">
+        <v>44160</v>
+      </c>
+      <c r="C45" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44161</v>
+      </c>
+      <c r="C46" s="2">
+        <v>180</v>
+      </c>
       <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3617,23 +3743,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC64"/>
+  <dimension ref="A1:XFC66"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3800,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>75.583333333333329</v>
+        <v>78.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3686,7 +3812,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>92.416666666666671</v>
+        <v>89.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4397,6 +4523,31 @@
       </c>
       <c r="D64" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C65">
+        <v>125</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4417,25 +4568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4661,33 +4793,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4705,4 +4830,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D6ACDC-3336-410F-A51B-E6A7A20709FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD86DC-9D95-48F8-AE67-161BCA0D6EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="177">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -560,6 +560,18 @@
   </si>
   <si>
     <t>Weekverslag</t>
+  </si>
+  <si>
+    <t>Les KBS + extra</t>
+  </si>
+  <si>
+    <t>Activity diagrams PS gemaakt + Jan Willem geholpen met afrekenen producten</t>
+  </si>
+  <si>
+    <t>Verder met site</t>
+  </si>
+  <si>
+    <t>Header normaal gemaakt, automatisch aanvullen order.php als je ingelogd bent gemaakt. Wachtwoord gehashed in de database gezet, moest daarvoor ipv varchar longblob zijn</t>
   </si>
 </sst>
 </file>
@@ -665,9 +677,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,8 +753,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D66" totalsRowShown="0">
-  <autoFilter ref="A9:D66" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D68" totalsRowShown="0">
+  <autoFilter ref="A9:D68" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -754,7 +766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3743,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC66"/>
+  <dimension ref="A1:XFC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3798,10 +3810,6 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <f>SUM(C10:C153)/60</f>
-        <v>78.083333333333329</v>
-      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3820,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>89.916666666666671</v>
+        <v>86.833333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4548,6 +4556,34 @@
       </c>
       <c r="C66">
         <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44131</v>
+      </c>
+      <c r="C67">
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4568,6 +4604,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4793,26 +4848,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4830,30 +4892,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD86DC-9D95-48F8-AE67-161BCA0D6EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C71BE-F95D-4BE4-9186-8A70A3C291D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>Header normaal gemaakt, automatisch aanvullen order.php als je ingelogd bent gemaakt. Wachtwoord gehashed in de database gezet, moest daarvoor ipv varchar longblob zijn</t>
+  </si>
+  <si>
+    <t>PDF genereren</t>
+  </si>
+  <si>
+    <t>PDf Mailsysteem</t>
+  </si>
+  <si>
+    <t>PDF wordt opgeslagen, gemailt en verwijderd. Kan nog niet implementeren totdat PDF generatie af is.</t>
   </si>
 </sst>
 </file>
@@ -724,8 +733,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D67" totalsRowShown="0">
-  <autoFilter ref="A9:D67" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D69" totalsRowShown="0">
+  <autoFilter ref="A9:D69" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -1092,16 +1101,16 @@
       <selection activeCell="C49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1683,16 +1692,16 @@
       <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2313,23 +2322,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC67"/>
+  <dimension ref="A1:XFC69"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:C67"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2379,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>82.5</v>
+        <v>85.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>85.5</v>
+        <v>82.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2493,7 +2502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3137,13 +3146,41 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="B67" s="3">
         <v>44162</v>
       </c>
       <c r="C67">
         <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C68">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44162</v>
+      </c>
+      <c r="C69">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3170,16 +3207,16 @@
       <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3757,21 +3794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4604,25 +4641,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4848,33 +4866,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4892,4 +4903,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C71BE-F95D-4BE4-9186-8A70A3C291D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F162138-1243-4967-A3E5-65CFA05D8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="184">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -581,6 +581,18 @@
   </si>
   <si>
     <t>PDF wordt opgeslagen, gemailt en verwijderd. Kan nog niet implementeren totdat PDF generatie af is.</t>
+  </si>
+  <si>
+    <t>Ana geholpen met CSS/berekeningen cart.php</t>
+  </si>
+  <si>
+    <t>Cart.php</t>
+  </si>
+  <si>
+    <t>Kortingscode winkelmand aangemaakt</t>
+  </si>
+  <si>
+    <t>Kortingscodes kunnen worden ingevuld, worden gecheckt tegen de database, worden op de prijs toegepast en weergegeven</t>
   </si>
 </sst>
 </file>
@@ -686,9 +698,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D49" totalsRowShown="0">
-  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D50" totalsRowShown="0">
+  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -733,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D69" totalsRowShown="0">
-  <autoFilter ref="A9:D69" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D70" totalsRowShown="0">
+  <autoFilter ref="A9:D70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -775,7 +787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,22 +1107,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A40" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C49" sqref="A49:C49"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1166,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1166,7 +1178,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1657,7 +1669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -1666,6 +1678,20 @@
       </c>
       <c r="C49">
         <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44163</v>
+      </c>
+      <c r="C50">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1692,16 +1718,16 @@
       <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2322,23 +2348,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC69"/>
+  <dimension ref="A1:XFC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2405,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>85.75</v>
+        <v>86.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2391,7 +2417,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>82.25</v>
+        <v>81.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2502,7 +2528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2699,7 +2725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3181,6 +3207,20 @@
       </c>
       <c r="D69" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44163</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3207,16 +3247,16 @@
       <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3798,17 +3838,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4641,6 +4681,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4866,26 +4925,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4903,30 +4969,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F162138-1243-4967-A3E5-65CFA05D8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C352770-CB30-401D-A2AA-AA7452C8649C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="186">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>Kortingscodes kunnen worden ingevuld, worden gecheckt tegen de database, worden op de prijs toegepast en weergegeven</t>
+  </si>
+  <si>
+    <t>Kortingscode fix</t>
+  </si>
+  <si>
+    <t>Geldige codes worden nu in een sessie bewaard</t>
   </si>
 </sst>
 </file>
@@ -716,8 +722,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D50" totalsRowShown="0">
-  <autoFilter ref="A9:D50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D51" totalsRowShown="0">
+  <autoFilter ref="A9:D51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1107,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1166,7 +1172,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>59</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1178,7 +1184,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>109</v>
+        <v>108.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1692,6 +1698,20 @@
       </c>
       <c r="D50" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44164</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4681,25 +4701,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4925,33 +4926,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4969,4 +4963,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C352770-CB30-401D-A2AA-AA7452C8649C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF8DD4-5EF9-4E13-AA9D-CD666F5D4265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="188">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>Geldige codes worden nu in een sessie bewaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orderpagina </t>
+  </si>
+  <si>
+    <t>Orderinfo staat nu in sessies</t>
   </si>
 </sst>
 </file>
@@ -722,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D51" totalsRowShown="0">
-  <autoFilter ref="A9:D51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D52" totalsRowShown="0">
+  <autoFilter ref="A9:D52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
@@ -1172,7 +1178,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>59.666666666666664</v>
+        <v>61.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1184,7 +1190,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>108.33333333333334</v>
+        <v>106.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1712,6 +1718,20 @@
       </c>
       <c r="D51" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44164</v>
+      </c>
+      <c r="C52">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4701,6 +4721,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4926,26 +4965,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4963,30 +5009,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF8DD4-5EF9-4E13-AA9D-CD666F5D4265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361C8D0-58BF-4BF1-AB01-3D24AF28CAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="190">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>Orderinfo staat nu in sessies</t>
+  </si>
+  <si>
+    <t>Roy geholpen styling PDF</t>
+  </si>
+  <si>
+    <t>PDF geintegreerd met het systeem</t>
   </si>
 </sst>
 </file>
@@ -710,9 +716,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D70" totalsRowShown="0">
-  <autoFilter ref="A9:D70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D72" totalsRowShown="0">
+  <autoFilter ref="A9:D72" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -799,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,20 +1127,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1758,16 +1764,16 @@
       <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2388,23 +2394,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC70"/>
+  <dimension ref="A1:XFC72"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2444,8 +2450,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C154)/60</f>
-        <v>86.416666666666671</v>
+        <f>SUM(C10:C155)/60</f>
+        <v>88.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2456,8 +2462,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>81.583333333333329</v>
+        <f>(2*3*28)-(SUM(C10:C155)/60)</f>
+        <v>79.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2568,7 +2574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3261,6 +3267,28 @@
       </c>
       <c r="D70" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3287,16 +3315,16 @@
       <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3878,17 +3906,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4721,25 +4749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4965,33 +4974,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5009,4 +5011,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361C8D0-58BF-4BF1-AB01-3D24AF28CAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801A91B-E97B-4722-861D-713BD50DD3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="199">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -611,6 +611,33 @@
   </si>
   <si>
     <t>PDF geintegreerd met het systeem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export PDF </t>
+  </si>
+  <si>
+    <t>PDF document css</t>
+  </si>
+  <si>
+    <t>afronden pdf en begin css</t>
+  </si>
+  <si>
+    <t>Css leren</t>
+  </si>
+  <si>
+    <t>online informatie opzoeken en begin maken</t>
+  </si>
+  <si>
+    <t>zelf proberen te stylen</t>
+  </si>
+  <si>
+    <t>Pdf document afgerond en gestyled</t>
+  </si>
+  <si>
+    <t>Hulp gekregen van Ivar met wat start problemen</t>
+  </si>
+  <si>
+    <t>Afronden PDF document</t>
   </si>
 </sst>
 </file>
@@ -688,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -714,11 +741,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,8 +807,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D49" totalsRowShown="0">
-  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -805,7 +833,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1127,20 +1155,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1760,20 +1788,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2396,21 +2424,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2588,7 +2616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3309,22 +3337,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C49"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3364,8 +3392,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>56.083333333333336</v>
+        <f>SUM(C10:C154)/60</f>
+        <v>63.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3376,8 +3404,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>111.91666666666666</v>
+        <f>(2*3*28)-(SUM(C10:C154)/60)</f>
+        <v>104.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3870,7 +3898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -3879,6 +3907,76 @@
       </c>
       <c r="C49">
         <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="13">
+        <v>44163</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44164</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C54">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3902,21 +4000,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC68"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4749,6 +4847,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4974,26 +5091,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5011,30 +5135,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801A91B-E97B-4722-861D-713BD50DD3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD1D49-0F22-4A79-8A10-A35C6F682BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="201">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>Afronden PDF document</t>
+  </si>
+  <si>
+    <t>Begin gemaakt klantenservice</t>
+  </si>
+  <si>
+    <t>Klantenservice knop zit in de footer, naam en bericht kan ingevuld worden, wordt nog niet automatisch aangevuld of verstuurd</t>
   </si>
 </sst>
 </file>
@@ -735,18 +741,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,8 +784,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D53" totalsRowShown="0">
-  <autoFilter ref="A9:D53" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -833,7 +839,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1155,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1169,12 +1175,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1786,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:C53"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1802,12 +1808,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1842,7 +1848,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>66.666666666666671</v>
+        <v>69.666666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1854,7 +1860,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>101.33333333333333</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2402,6 +2408,20 @@
       </c>
       <c r="C53">
         <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44165</v>
+      </c>
+      <c r="C54">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2424,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC72"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A46" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -2439,12 +2459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -3339,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -3353,12 +3373,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -3913,7 +3933,7 @@
       <c r="A50" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="11">
         <v>44163</v>
       </c>
       <c r="C50">
@@ -4000,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC68"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -4015,12 +4035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -4847,25 +4867,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5091,33 +5092,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5135,4 +5129,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD1D49-0F22-4A79-8A10-A35C6F682BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44EF38-C248-4F38-82CC-FB8B4BE0C655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="203">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>Klantenservice knop zit in de footer, naam en bericht kan ingevuld worden, wordt nog niet automatisch aangevuld of verstuurd</t>
+  </si>
+  <si>
+    <t>Requirement t.a.v Archtictuur</t>
+  </si>
+  <si>
+    <t>Automatisch aanvullen customer service</t>
   </si>
 </sst>
 </file>
@@ -784,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D56" totalsRowShown="0">
+  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -797,8 +803,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D72" totalsRowShown="0">
-  <autoFilter ref="A9:D72" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D74" totalsRowShown="0">
+  <autoFilter ref="A9:D74" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -826,8 +832,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D68" totalsRowShown="0">
-  <autoFilter ref="A9:D68" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D70" totalsRowShown="0">
+  <autoFilter ref="A9:D70" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1165,16 +1171,16 @@
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1792,22 +1798,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A56" sqref="A56:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1854,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>69.666666666666671</v>
+        <v>71.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1860,7 +1866,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>98.333333333333329</v>
+        <v>96.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2422,6 +2428,31 @@
       </c>
       <c r="D54" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2442,23 +2473,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC72"/>
+  <dimension ref="A1:XFC74"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2530,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C155)/60</f>
-        <v>88.083333333333329</v>
+        <v>89.833333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2511,7 +2542,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C155)/60)</f>
-        <v>79.916666666666671</v>
+        <v>78.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2622,7 +2653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2636,7 +2667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3336,6 +3367,31 @@
         <v>44165</v>
       </c>
       <c r="C72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C73">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C74">
         <v>60</v>
       </c>
     </row>
@@ -3363,16 +3419,16 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4018,23 +4074,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC68"/>
+  <dimension ref="A1:XFC70"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4139,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>86.833333333333329</v>
+        <v>85.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4847,6 +4903,31 @@
       </c>
       <c r="D68" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C70">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4867,6 +4948,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5092,26 +5192,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5129,30 +5236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44EF38-C248-4F38-82CC-FB8B4BE0C655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F36E326-0B52-422B-9CC6-A6F6E09D2812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="206">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -650,6 +650,15 @@
   </si>
   <si>
     <t>Automatisch aanvullen customer service</t>
+  </si>
+  <si>
+    <t>Lijst feedback order/korting gekregen</t>
+  </si>
+  <si>
+    <t>cart/order.php</t>
+  </si>
+  <si>
+    <t>Winkelmand heringedeeld, couponfunctie beter op pagina uitgewerkt. Order.php bevat nu gender veld en zet nu alle informatie in de sessie paymentInfo</t>
   </si>
 </sst>
 </file>
@@ -756,9 +765,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,8 +783,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D52" totalsRowShown="0">
-  <autoFilter ref="A9:D52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -845,7 +854,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1165,22 +1174,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>61.25</v>
+        <v>65.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>106.75</v>
+        <v>102.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1778,6 +1787,34 @@
       </c>
       <c r="D52" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1800,20 +1837,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A56" sqref="A56:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2479,17 +2516,17 @@
       <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2667,7 +2704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2850,7 +2887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3419,16 +3456,16 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4080,17 +4117,17 @@
       <selection activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4948,25 +4985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5192,33 +5210,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5236,4 +5247,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD1D49-0F22-4A79-8A10-A35C6F682BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001EDDF-D9E1-4AAD-86BB-AFDFF864A19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>Klantenservice knop zit in de footer, naam en bericht kan ingevuld worden, wordt nog niet automatisch aangevuld of verstuurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezig met it architectuur </t>
+  </si>
+  <si>
+    <t>it architectuur gemaakt in de les pakket selectie voor het video portaal</t>
+  </si>
+  <si>
+    <t>kbs les online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in groepsverband overlegd over demo eind van de week, gewerkt in groepsverband aan problemen op de website </t>
   </si>
 </sst>
 </file>
@@ -784,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D56" totalsRowShown="0">
+  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1792,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1848,7 +1860,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>69.666666666666671</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>98.333333333333329</v>
+        <v>96.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2422,6 +2434,34 @@
       </c>
       <c r="D54" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC72"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A52" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -4867,6 +4907,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5092,26 +5151,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5129,30 +5195,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001EDDF-D9E1-4AAD-86BB-AFDFF864A19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E8212-FA07-4677-BBB6-7EE798943B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="205">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -780,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D52" totalsRowShown="0">
-  <autoFilter ref="A9:D52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D54" totalsRowShown="0">
+  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -809,8 +809,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D72" totalsRowShown="0">
-  <autoFilter ref="A9:D72" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D74" totalsRowShown="0">
+  <autoFilter ref="A9:D74" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -825,8 +825,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D56" totalsRowShown="0">
+  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -838,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D68" totalsRowShown="0">
-  <autoFilter ref="A9:D68" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D70" totalsRowShown="0">
+  <autoFilter ref="A9:D70" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1171,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>61.25</v>
+        <v>62.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>106.75</v>
+        <v>105.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1784,6 +1784,20 @@
       </c>
       <c r="D52" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2482,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC72"/>
+  <dimension ref="A1:XFC74"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="A73" sqref="A73:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2539,7 +2553,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C155)/60</f>
-        <v>88.083333333333329</v>
+        <v>90.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2551,7 +2565,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C155)/60)</f>
-        <v>79.916666666666671</v>
+        <v>77.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3377,6 +3391,34 @@
       </c>
       <c r="C72">
         <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C73">
+        <v>60</v>
+      </c>
+      <c r="D73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3397,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3453,7 +3495,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C154)/60</f>
-        <v>63.25</v>
+        <v>64.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3465,7 +3507,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>104.75</v>
+        <v>103.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4037,6 +4079,20 @@
       </c>
       <c r="D54" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C55">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4058,10 +4114,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC68"/>
+  <dimension ref="A1:XFC70"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4123,7 +4179,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>86.833333333333329</v>
+        <v>84.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4887,6 +4943,34 @@
       </c>
       <c r="D68" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C69">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C70">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4907,25 +4991,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5151,33 +5216,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5195,4 +5253,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E8212-FA07-4677-BBB6-7EE798943B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E28B178-7B9B-4313-A5F7-88AA618D947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -656,6 +656,27 @@
   </si>
   <si>
     <t xml:space="preserve">in groepsverband overlegd over demo eind van de week, gewerkt in groepsverband aan problemen op de website </t>
+  </si>
+  <si>
+    <t>Start gemaakt met securityOpdracht.  Errors gevonden als: Stijlen PDF, stijlen knoppen en versturen mail voor klantservice</t>
+  </si>
+  <si>
+    <t>Stijlen knoppen</t>
+  </si>
+  <si>
+    <t>Knoppen zijn nu op goede breedte gestyled.</t>
+  </si>
+  <si>
+    <t>PDF stijlen</t>
+  </si>
+  <si>
+    <t>PDF is nu volledig en heeft een acceptabelle stijling</t>
+  </si>
+  <si>
+    <t>Mail klantenservice</t>
+  </si>
+  <si>
+    <t>sendMail.php meermaals geïncluded. Meermaalse verwijderd</t>
   </si>
 </sst>
 </file>
@@ -809,8 +830,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D74" totalsRowShown="0">
-  <autoFilter ref="A9:D74" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D78" totalsRowShown="0">
+  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -1173,20 +1194,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView view="pageLayout" topLeftCell="A51" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1824,16 +1845,16 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2496,23 +2517,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC74"/>
+  <dimension ref="A1:XFC78"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D74"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2552,8 +2573,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C155)/60</f>
-        <v>90.083333333333329</v>
+        <f>SUM(C10:C156)/60</f>
+        <v>95.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2564,8 +2585,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C155)/60)</f>
-        <v>77.916666666666671</v>
+        <f>(2*3*28)-(SUM(C10:C156)/60)</f>
+        <v>72.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2676,7 +2697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2690,7 +2711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2873,7 +2894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3419,6 +3440,62 @@
       </c>
       <c r="D74" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C75">
+        <v>180</v>
+      </c>
+      <c r="D75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C77">
+        <v>60</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3445,16 +3522,16 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4120,17 +4197,17 @@
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4991,6 +5068,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5216,26 +5312,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5253,30 +5356,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E28B178-7B9B-4313-A5F7-88AA618D947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE39B7-D81F-407F-8615-08339E12A4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -677,6 +677,24 @@
   </si>
   <si>
     <t>sendMail.php meermaals geïncluded. Meermaalse verwijderd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig met de code </t>
+  </si>
+  <si>
+    <t>Geprobeerd de customer service te maken, niet gelukt vraag morgen hulp van anderen</t>
+  </si>
+  <si>
+    <t>Start gemaakt met securityOpdracht.  Demo powerpoint gemaakt &amp; uitlogknop gemaakt</t>
+  </si>
+  <si>
+    <t>Start gemaakt met securityOpdracht. stijlen knoppen en versturen mail voor klantservice, powerpoint voor de demo gemaakt.</t>
+  </si>
+  <si>
+    <t>Securityverslag</t>
+  </si>
+  <si>
+    <t>KBS op locatie via teams</t>
   </si>
 </sst>
 </file>
@@ -817,8 +835,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D56" totalsRowShown="0">
-  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D59" totalsRowShown="0">
+  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -859,8 +877,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D70" totalsRowShown="0">
-  <autoFilter ref="A9:D70" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D71" totalsRowShown="0">
+  <autoFilter ref="A9:D71" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1192,22 +1210,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A51" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView view="pageLayout" topLeftCell="A37" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1269,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C153)/60</f>
-        <v>62.75</v>
+        <v>64.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1263,7 +1281,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>105.25</v>
+        <v>103.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1819,6 +1837,20 @@
       </c>
       <c r="D53" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1839,22 +1871,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1927,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>71.666666666666671</v>
+        <v>76.916666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1907,7 +1939,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>96.333333333333329</v>
+        <v>91.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2497,6 +2529,48 @@
       </c>
       <c r="D56" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44167</v>
+      </c>
+      <c r="C57">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C58">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2519,21 +2593,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2711,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2894,7 +2968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3518,20 +3592,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView view="pageLayout" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4191,23 +4265,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC70"/>
+  <dimension ref="A1:XFC71"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4246,6 +4320,10 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <f>SUM(C10:C186)/60</f>
+        <v>86.666666666666671</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4334,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>84.333333333333329</v>
+        <v>81.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5048,6 +5126,20 @@
       </c>
       <c r="D70" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44168</v>
+      </c>
+      <c r="C71">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5068,25 +5160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5312,33 +5385,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5356,4 +5422,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE39B7-D81F-407F-8615-08339E12A4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1170D-CA13-4C7F-B984-C45ECB3A7EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -695,6 +695,21 @@
   </si>
   <si>
     <t>KBS op locatie via teams</t>
+  </si>
+  <si>
+    <t>Voorbereiden Demo</t>
+  </si>
+  <si>
+    <t>Demo uitvoeren</t>
+  </si>
+  <si>
+    <t>Nabespreken Demo</t>
+  </si>
+  <si>
+    <t>Trello, Testrapport, Weekverslag</t>
+  </si>
+  <si>
+    <t>Feedback in Aantekeningen</t>
   </si>
 </sst>
 </file>
@@ -819,8 +834,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D54" totalsRowShown="0">
-  <autoFilter ref="A9:D54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D58" totalsRowShown="0">
+  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -835,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D59" totalsRowShown="0">
-  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D62" totalsRowShown="0">
+  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -848,8 +863,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D78" totalsRowShown="0">
-  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D81" totalsRowShown="0">
+  <autoFilter ref="A9:D81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -864,8 +879,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D56" totalsRowShown="0">
-  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D58" totalsRowShown="0">
+  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -877,8 +892,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D71" totalsRowShown="0">
-  <autoFilter ref="A9:D71" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D74" totalsRowShown="0">
+  <autoFilter ref="A9:D74" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1210,22 +1225,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1268,8 +1283,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C153)/60</f>
-        <v>64.25</v>
+        <f>SUM(C10:C156)/60</f>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1280,8 +1295,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>103.75</v>
+        <f>(2*3*28)-(SUM(C10:C156)/60)</f>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1852,6 +1867,48 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C56">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1871,22 +1928,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1984,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>76.916666666666671</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1939,7 +1996,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>91.083333333333329</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2571,6 +2628,45 @@
       </c>
       <c r="D59" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C61">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2591,23 +2687,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC78"/>
+  <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2744,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>95.083333333333329</v>
+        <v>99.833333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2660,7 +2756,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>72.916666666666671</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2771,7 +2867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2785,7 +2881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2968,7 +3064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3570,6 +3666,45 @@
       </c>
       <c r="D78" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C80">
+        <v>105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C81">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3590,22 +3725,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3645,8 +3780,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C154)/60</f>
-        <v>64.75</v>
+        <f>SUM(C10:C156)/60</f>
+        <v>69.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3657,8 +3792,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C154)/60)</f>
-        <v>103.25</v>
+        <f>(2*3*28)-(SUM(C10:C156)/60)</f>
+        <v>98.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4244,6 +4379,45 @@
       </c>
       <c r="D55" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C57">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C58">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4265,23 +4439,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC71"/>
+  <dimension ref="A1:XFC74"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4496,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>86.666666666666671</v>
+        <v>91.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4334,7 +4508,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>81.333333333333329</v>
+        <v>76.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5140,6 +5314,45 @@
       </c>
       <c r="D71" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C72">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C73">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C74">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5160,6 +5373,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5385,26 +5617,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5422,30 +5661,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1170D-CA13-4C7F-B984-C45ECB3A7EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533C3AE7-91B1-415C-9438-C7EEE33AF512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="225">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -710,6 +710,12 @@
   </si>
   <si>
     <t>Feedback in Aantekeningen</t>
+  </si>
+  <si>
+    <t>Verschillende veranderingen</t>
+  </si>
+  <si>
+    <t>Kortingscoupon geeft nu vinkje/kruisje aan naast de code, gender wordt nu automatisch ingevuld in order.php, voorraad wordt nu overal goed weergegeven</t>
   </si>
 </sst>
 </file>
@@ -816,9 +822,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,7 +911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1227,20 +1233,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1290,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1908,7 +1914,18 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="3"/>
+      <c r="A58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44171</v>
+      </c>
+      <c r="C58">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1934,16 +1951,16 @@
       <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2693,17 +2710,17 @@
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3064,7 +3081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3731,16 +3748,16 @@
       <selection activeCell="A56" sqref="A56:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4441,21 +4458,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5373,25 +5390,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5617,33 +5615,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5661,4 +5652,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533C3AE7-91B1-415C-9438-C7EEE33AF512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F53237-CF38-42C7-BB11-163924D2F7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="227">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>Kortingscoupon geeft nu vinkje/kruisje aan naast de code, gender wordt nu automatisch ingevuld in order.php, voorraad wordt nu overal goed weergegeven</t>
+  </si>
+  <si>
+    <t>Technisch ontwerp</t>
+  </si>
+  <si>
+    <t>Disccussie over en maken ERD</t>
   </si>
 </sst>
 </file>
@@ -840,8 +846,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D58" totalsRowShown="0">
-  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D59" totalsRowShown="0">
+  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -856,8 +862,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D62" totalsRowShown="0">
-  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D63" totalsRowShown="0">
+  <autoFilter ref="A9:D63" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -869,8 +875,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D81" totalsRowShown="0">
-  <autoFilter ref="A9:D81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D82" totalsRowShown="0">
+  <autoFilter ref="A9:D82" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -885,8 +891,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D58" totalsRowShown="0">
-  <autoFilter ref="A9:D58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D59" totalsRowShown="0">
+  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -898,8 +904,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D74" totalsRowShown="0">
-  <autoFilter ref="A9:D74" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D75" totalsRowShown="0">
+  <autoFilter ref="A9:D75" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1231,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1290,7 +1296,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>72</v>
+        <v>74.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1302,7 +1308,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>96</v>
+        <v>93.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1925,6 +1931,20 @@
       </c>
       <c r="D58" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C59">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView view="pageLayout" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2001,7 +2021,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>81.666666666666671</v>
+        <v>84.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2013,7 +2033,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>86.333333333333329</v>
+        <v>83.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2684,6 +2704,20 @@
       </c>
       <c r="D62" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C63">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2704,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC81"/>
+  <dimension ref="A1:XFC82"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2761,7 +2795,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>99.833333333333329</v>
+        <v>102.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2773,7 +2807,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>68.166666666666671</v>
+        <v>65.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3722,6 +3756,20 @@
       </c>
       <c r="D81" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C82">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3742,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:D58"/>
+    <sheetView view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3798,7 +3846,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>69.5</v>
+        <v>71.916666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3810,7 +3858,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>98.5</v>
+        <v>96.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4435,6 +4483,20 @@
       </c>
       <c r="D58" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C59">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4456,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC74"/>
+  <dimension ref="A1:XFC75"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4513,7 +4575,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>91.416666666666671</v>
+        <v>93.833333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4525,7 +4587,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>76.583333333333329</v>
+        <v>74.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5370,6 +5432,20 @@
       </c>
       <c r="D74" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C75">
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F53237-CF38-42C7-BB11-163924D2F7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62F5A6-32D7-4EAC-AB80-CBCFAB6A0A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="229">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>Disccussie over en maken ERD</t>
+  </si>
+  <si>
+    <t>Chocolate image</t>
+  </si>
+  <si>
+    <t>onderzoek naar probleem en oplossing</t>
   </si>
 </sst>
 </file>
@@ -891,8 +897,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D59" totalsRowShown="0">
-  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D60" totalsRowShown="0">
+  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -1239,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3790,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3845,8 +3851,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C156)/60</f>
-        <v>71.916666666666671</v>
+        <f>SUM(C10:C157)/60</f>
+        <v>72.916666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3857,8 +3863,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>96.083333333333329</v>
+        <f>(2*3*28)-(SUM(C10:C157)/60)</f>
+        <v>95.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4497,6 +4503,20 @@
       </c>
       <c r="D59" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44172</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5466,6 +5486,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5691,26 +5730,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5728,30 +5774,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62F5A6-32D7-4EAC-AB80-CBCFAB6A0A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C404B-BF81-4600-B884-FD0628D1E2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="233">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>onderzoek naar probleem en oplossing</t>
+  </si>
+  <si>
+    <t>Pakketselectie / KBS</t>
+  </si>
+  <si>
+    <t>Pakketselectie opdracht en daarna KBS les</t>
+  </si>
+  <si>
+    <t>Pakketselectie</t>
+  </si>
+  <si>
+    <t>Pakketselectie over project</t>
   </si>
 </sst>
 </file>
@@ -852,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D59" totalsRowShown="0">
-  <autoFilter ref="A9:D59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D60" totalsRowShown="0">
+  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -868,8 +880,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D63" totalsRowShown="0">
-  <autoFilter ref="A9:D63" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D64" totalsRowShown="0">
+  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -881,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D82" totalsRowShown="0">
-  <autoFilter ref="A9:D82" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D83" totalsRowShown="0">
+  <autoFilter ref="A9:D83" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -897,8 +909,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D60" totalsRowShown="0">
-  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D61" totalsRowShown="0">
+  <autoFilter ref="A9:D61" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -910,8 +922,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D75" totalsRowShown="0">
-  <autoFilter ref="A9:D75" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D76" totalsRowShown="0">
+  <autoFilter ref="A9:D76" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1243,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1302,7 +1314,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>74.416666666666671</v>
+        <v>75.916666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1314,7 +1326,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>93.583333333333329</v>
+        <v>92.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1951,6 +1963,20 @@
       </c>
       <c r="D59" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C60">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1971,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:D63"/>
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2027,7 +2053,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>84.083333333333329</v>
+        <v>85.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2039,7 +2065,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>83.916666666666671</v>
+        <v>82.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2724,6 +2750,20 @@
       </c>
       <c r="D63" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C64">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2744,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC82"/>
+  <dimension ref="A1:XFC83"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:D82"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2801,7 +2841,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>102.25</v>
+        <v>102.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2813,7 +2853,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>65.75</v>
+        <v>65.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3776,6 +3816,20 @@
       </c>
       <c r="D82" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44173</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3796,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3852,7 +3906,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C157)/60</f>
-        <v>72.916666666666671</v>
+        <v>74.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3864,7 +3918,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C157)/60)</f>
-        <v>95.083333333333329</v>
+        <v>93.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4517,6 +4571,20 @@
       </c>
       <c r="D60" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C61">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4538,10 +4606,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC75"/>
+  <dimension ref="A1:XFC76"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D75"/>
+      <selection activeCell="A76" sqref="A76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4595,7 +4663,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>93.833333333333329</v>
+        <v>95.333333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4607,7 +4675,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>74.166666666666671</v>
+        <v>72.666666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5466,6 +5534,20 @@
       </c>
       <c r="D75" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5486,25 +5568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5730,33 +5793,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5774,4 +5830,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C404B-BF81-4600-B884-FD0628D1E2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0942F4F-6F96-4B9C-9CB0-CEE16BA30908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -846,9 +846,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D60" totalsRowShown="0">
-  <autoFilter ref="A9:D60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D61" totalsRowShown="0">
+  <autoFilter ref="A9:D61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -880,8 +880,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D64" totalsRowShown="0">
-  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D65" totalsRowShown="0">
+  <autoFilter ref="A9:D65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -893,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D83" totalsRowShown="0">
-  <autoFilter ref="A9:D83" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D84" totalsRowShown="0">
+  <autoFilter ref="A9:D84" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -909,8 +909,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D61" totalsRowShown="0">
-  <autoFilter ref="A9:D61" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D62" totalsRowShown="0">
+  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -922,8 +922,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D76" totalsRowShown="0">
-  <autoFilter ref="A9:D76" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D77" totalsRowShown="0">
+  <autoFilter ref="A9:D77" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -935,7 +935,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1255,22 +1255,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+    <sheetView view="pageLayout" topLeftCell="A51" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>75.916666666666671</v>
+        <v>78.916666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>92.083333333333329</v>
+        <v>89.083333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1977,6 +1977,20 @@
       </c>
       <c r="D60" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C61">
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1997,22 +2011,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+      <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2067,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>85.583333333333329</v>
+        <v>88.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2065,7 +2079,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>82.416666666666671</v>
+        <v>79.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2764,6 +2778,20 @@
       </c>
       <c r="D64" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C65">
+        <v>180</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2784,23 +2812,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC83"/>
+  <dimension ref="A1:XFC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D84" sqref="A84:D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2869,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>102.75</v>
+        <v>105.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2853,7 +2881,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>65.25</v>
+        <v>62.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2964,7 +2992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2978,7 +3006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3161,7 +3189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3830,6 +3858,20 @@
       </c>
       <c r="D83" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C84">
+        <v>180</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3850,22 +3892,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+    <sheetView view="pageLayout" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +3948,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C157)/60</f>
-        <v>74.416666666666671</v>
+        <v>77.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3918,7 +3960,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C157)/60)</f>
-        <v>93.583333333333329</v>
+        <v>90.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4585,6 +4627,20 @@
       </c>
       <c r="D61" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C62">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4606,23 +4662,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC76"/>
+  <dimension ref="A1:XFC77"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:D76"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4663,7 +4719,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>95.333333333333329</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4675,7 +4731,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>72.666666666666671</v>
+        <v>69.666666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5548,6 +5604,20 @@
       </c>
       <c r="D76" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C77">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5568,6 +5638,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5793,26 +5882,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5830,30 +5926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0942F4F-6F96-4B9C-9CB0-CEE16BA30908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA21BA-AD8C-4970-8694-0B90588186C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="237">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -740,6 +740,18 @@
   </si>
   <si>
     <t>Pakketselectie over project</t>
+  </si>
+  <si>
+    <t>Password Policy</t>
+  </si>
+  <si>
+    <t>onderzoek doen naar oplossing</t>
+  </si>
+  <si>
+    <t>Password policy</t>
+  </si>
+  <si>
+    <t>Wachtwoord beleid toevoegen, veel lopen strugglen met meerdere eisen toevoegen</t>
   </si>
 </sst>
 </file>
@@ -846,9 +858,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,8 +921,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D62" totalsRowShown="0">
-  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D64" totalsRowShown="0">
+  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -935,7 +947,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,20 +1269,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A51" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2017,16 +2029,16 @@
       <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2818,17 +2830,17 @@
       <selection activeCell="D84" sqref="A84:D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3892,22 +3904,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3947,8 +3959,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C157)/60</f>
-        <v>77.416666666666671</v>
+        <f>SUM(C10:C158)/60</f>
+        <v>81.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3959,8 +3971,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C157)/60)</f>
-        <v>90.583333333333329</v>
+        <f>(2*3*28)-(SUM(C10:C158)/60)</f>
+        <v>86.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4631,16 +4643,44 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44174</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B63" s="3">
         <v>44175</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>180</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4664,21 +4704,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5638,25 +5678,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5882,33 +5903,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5926,4 +5940,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA21BA-AD8C-4970-8694-0B90588186C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B812C53-4AC3-4B18-830B-4A116DAA623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="239">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>Wachtwoord beleid toevoegen, veel lopen strugglen met meerdere eisen toevoegen</t>
+  </si>
+  <si>
+    <t>Database proberen werkende te krijgen</t>
+  </si>
+  <si>
+    <t>Allemaal manieren geprobeerd om mijn databases op mijn macbook weer werkende te krijgen zonder resultaat.</t>
   </si>
 </sst>
 </file>
@@ -858,9 +864,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -892,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D65" totalsRowShown="0">
-  <autoFilter ref="A9:D65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D66" totalsRowShown="0">
+  <autoFilter ref="A9:D66" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -947,7 +953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1269,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -2023,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D65"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2079,7 +2085,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>88.583333333333329</v>
+        <v>90.083333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>79.416666666666671</v>
+        <v>77.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2804,6 +2810,20 @@
       </c>
       <c r="D65" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44175</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC84"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="D84" sqref="A84:D84"/>
     </sheetView>
   </sheetViews>
@@ -3906,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -4704,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC77"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:D77"/>
     </sheetView>
   </sheetViews>
@@ -5678,6 +5698,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5903,26 +5942,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5940,30 +5986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B812C53-4AC3-4B18-830B-4A116DAA623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EDC0E-F773-476E-83D1-1D756577B419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="240">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>Allemaal manieren geprobeerd om mijn databases op mijn macbook weer werkende te krijgen zonder resultaat.</t>
+  </si>
+  <si>
+    <t>Taakverdeling, Inleveren Docu,</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D61" totalsRowShown="0">
-  <autoFilter ref="A9:D61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D62" totalsRowShown="0">
+  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -898,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D66" totalsRowShown="0">
-  <autoFilter ref="A9:D66" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D67" totalsRowShown="0">
+  <autoFilter ref="A9:D67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -911,8 +914,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D84" totalsRowShown="0">
-  <autoFilter ref="A9:D84" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D85" totalsRowShown="0">
+  <autoFilter ref="A9:D85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -927,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D64" totalsRowShown="0">
-  <autoFilter ref="A9:D64" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D65" totalsRowShown="0">
+  <autoFilter ref="A9:D65" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -940,8 +943,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D77" totalsRowShown="0">
-  <autoFilter ref="A9:D77" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D78" totalsRowShown="0">
+  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1273,22 +1276,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView view="pageLayout" topLeftCell="A49" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1335,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>78.916666666666671</v>
+        <v>80.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1344,7 +1347,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>89.083333333333329</v>
+        <v>87.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2009,6 +2012,20 @@
       </c>
       <c r="D61" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2029,22 +2046,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2102,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>90.083333333333329</v>
+        <v>91.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2097,7 +2114,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>77.916666666666671</v>
+        <v>76.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2824,6 +2841,20 @@
       </c>
       <c r="D66" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C67">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2844,23 +2875,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC84"/>
+  <dimension ref="A1:XFC85"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D84" sqref="A84:D84"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D85" sqref="A85:D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2932,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>105.75</v>
+        <v>107.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2913,7 +2944,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>62.25</v>
+        <v>60.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3024,7 +3055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3038,7 +3069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3221,7 +3252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3904,6 +3935,20 @@
       </c>
       <c r="D84" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C85">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3924,22 +3969,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView view="pageLayout" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +4025,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C158)/60</f>
-        <v>81.25</v>
+        <v>82.75</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3992,7 +4037,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C158)/60)</f>
-        <v>86.75</v>
+        <v>85.25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4701,6 +4746,20 @@
       </c>
       <c r="D64" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C65">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4722,23 +4781,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC77"/>
+  <dimension ref="A1:XFC78"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D77"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4779,7 +4838,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>98.333333333333329</v>
+        <v>99.833333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4791,7 +4850,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>69.666666666666671</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5678,6 +5737,20 @@
       </c>
       <c r="D77" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C78">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5698,25 +5771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5942,33 +5996,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5986,4 +6033,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EDC0E-F773-476E-83D1-1D756577B419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C050C-27DD-47FA-8724-14032654AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="241">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Taakverdeling, Inleveren Docu,</t>
+  </si>
+  <si>
+    <t>SecurityScan</t>
   </si>
 </sst>
 </file>
@@ -901,8 +904,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D67" totalsRowShown="0">
-  <autoFilter ref="A9:D67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D68" totalsRowShown="0">
+  <autoFilter ref="A9:D68" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -914,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D85" totalsRowShown="0">
-  <autoFilter ref="A9:D85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D86" totalsRowShown="0">
+  <autoFilter ref="A9:D86" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -943,8 +946,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D78" totalsRowShown="0">
-  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D79" totalsRowShown="0">
+  <autoFilter ref="A9:D79" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1282,16 +1285,16 @@
       <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2046,22 +2049,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D67"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2105,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>91.583333333333329</v>
+        <v>92.583333333333329</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2114,7 +2117,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>76.416666666666671</v>
+        <v>75.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2855,6 +2858,17 @@
       </c>
       <c r="D67" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2875,23 +2889,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC85"/>
+  <dimension ref="A1:XFC86"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D85" sqref="A85:D85"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2946,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>107.25</v>
+        <v>108.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2944,7 +2958,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>60.75</v>
+        <v>59.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3055,7 +3069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3069,7 +3083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3949,6 +3963,17 @@
       </c>
       <c r="D85" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C86">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3975,16 +4000,16 @@
       <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4781,23 +4806,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC78"/>
+  <dimension ref="A1:XFC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:D78"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4863,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>99.833333333333329</v>
+        <v>100.83333333333333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4850,7 +4875,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>68.166666666666671</v>
+        <v>67.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5751,6 +5776,17 @@
       </c>
       <c r="D78" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C79">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5771,6 +5807,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5996,26 +6051,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6033,30 +6095,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C050C-27DD-47FA-8724-14032654AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD3809-3A7C-4412-9D96-9D407A2B5B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="242">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>SecurityScan</t>
+  </si>
+  <si>
+    <t>Document afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -917,8 +920,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D86" totalsRowShown="0">
-  <autoFilter ref="A9:D86" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D87" totalsRowShown="0">
+  <autoFilter ref="A9:D87" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -946,8 +949,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D79" totalsRowShown="0">
-  <autoFilter ref="A9:D79" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D80" totalsRowShown="0">
+  <autoFilter ref="A9:D80" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -2889,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC86"/>
+  <dimension ref="A1:XFC87"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2946,7 +2949,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>108.25</v>
+        <v>109.58333333333333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>59.75</v>
+        <v>58.416666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3974,6 +3977,20 @@
       </c>
       <c r="C86">
         <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4806,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC79"/>
+  <dimension ref="A1:XFC80"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="D80" sqref="A80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4863,7 +4880,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>100.83333333333333</v>
+        <v>102.16666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4875,7 +4892,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>67.166666666666671</v>
+        <v>65.833333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5787,6 +5804,20 @@
       </c>
       <c r="C79">
         <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44176</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5807,25 +5838,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6051,33 +6063,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6095,4 +6100,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD3809-3A7C-4412-9D96-9D407A2B5B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F0D54-197B-4AF0-AB95-1A4CC486AD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="244">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>Document afgemaakt</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Gedragsregels en overig. Zie aantekeningen voor verdere uitleg</t>
   </si>
 </sst>
 </file>
@@ -920,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D87" totalsRowShown="0">
-  <autoFilter ref="A9:D87" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D88" totalsRowShown="0">
+  <autoFilter ref="A9:D88" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -949,8 +955,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D80" totalsRowShown="0">
-  <autoFilter ref="A9:D80" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D81" totalsRowShown="0">
+  <autoFilter ref="A9:D81" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1288,16 +1294,16 @@
       <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2058,16 +2064,16 @@
       <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2892,23 +2898,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC87"/>
+  <dimension ref="A1:XFC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D88" sqref="A88:D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>109.58333333333333</v>
+        <v>115.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>58.416666666666671</v>
+        <v>52.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3072,7 +3078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3991,6 +3997,20 @@
       </c>
       <c r="D87" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="3">
+        <v>44177</v>
+      </c>
+      <c r="C88">
+        <v>340</v>
+      </c>
+      <c r="D88" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4017,16 +4037,16 @@
       <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4823,23 +4843,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC80"/>
+  <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D80" sqref="A80:D80"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4900,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>102.16666666666667</v>
+        <v>107.83333333333333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4892,7 +4912,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>65.833333333333329</v>
+        <v>60.166666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5818,6 +5838,20 @@
       </c>
       <c r="D80" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44177</v>
+      </c>
+      <c r="C81">
+        <v>340</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5838,6 +5872,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6063,26 +6116,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6100,30 +6160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F0D54-197B-4AF0-AB95-1A4CC486AD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59921F8-DCC5-4F65-B6D1-D69786D8423C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="246">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>Gedragsregels en overig. Zie aantekeningen voor verdere uitleg</t>
+  </si>
+  <si>
+    <t>Securityverslag afgerond</t>
+  </si>
+  <si>
+    <t>Inleidingen bij hoofdstukken/subkopjes, inleiding document, conclusie</t>
   </si>
 </sst>
 </file>
@@ -879,9 +885,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D62" totalsRowShown="0">
-  <autoFilter ref="A9:D62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D63" totalsRowShown="0">
+  <autoFilter ref="A9:D63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -942,8 +948,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D65" totalsRowShown="0">
-  <autoFilter ref="A9:D65" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D66" totalsRowShown="0">
+  <autoFilter ref="A9:D66" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
@@ -968,7 +974,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1288,22 +1294,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A49" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1353,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C156)/60</f>
-        <v>80.416666666666671</v>
+        <v>82.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1359,7 +1365,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C156)/60)</f>
-        <v>87.583333333333329</v>
+        <v>85.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2038,6 +2044,20 @@
       </c>
       <c r="D62" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44178</v>
+      </c>
+      <c r="C63">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2064,16 +2084,16 @@
       <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2904,17 +2924,17 @@
       <selection activeCell="D88" sqref="A88:D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3092,7 +3112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -4031,22 +4051,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D65"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +4107,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C158)/60</f>
-        <v>82.75</v>
+        <v>84.416666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4099,7 +4119,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C158)/60)</f>
-        <v>85.25</v>
+        <v>83.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4822,6 +4842,20 @@
       </c>
       <c r="D65" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44178</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4845,21 +4879,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A63" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A81" sqref="A81:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5872,25 +5906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6116,33 +6131,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6160,4 +6168,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Tijdschriftformulier.xlsx
+++ b/Documenten/Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59921F8-DCC5-4F65-B6D1-D69786D8423C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1AB885-41C8-4681-8CF2-BB22A34C6273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="247">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Inleidingen bij hoofdstukken/subkopjes, inleiding document, conclusie</t>
+  </si>
+  <si>
+    <t>Nested selected in procedure werkte niet. Een select uit dezelfde tabel als je wilt inserten ook niet. Nu een procedure geschreven die alleen update en naar archief wegschrijft. Alleen Idwordt niet geupdated, maar die is ook niet nodig. Je selecteerd alleen maar op sensorID</t>
   </si>
 </sst>
 </file>
@@ -885,9 +888,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,8 +935,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D88" totalsRowShown="0">
-  <autoFilter ref="A9:D88" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D89" totalsRowShown="0">
+  <autoFilter ref="A9:D89" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -974,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1296,20 +1299,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A52" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWid